--- a/data-migration/xlsx_1900-/1925_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1925_Sommer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DADDAD-2E64-411B-AF8B-A7C74A872668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DA19DE-00DE-4BDE-B00B-0F4B89663861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4357,9 +4357,6 @@
     <t>vontuhr_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>voncleric_gf</t>
   </si>
   <si>
@@ -4405,18 +4402,12 @@
     <t>brun_h</t>
   </si>
   <si>
-    <t>walthard _m</t>
-  </si>
-  <si>
     <t>meyerrueegg_h</t>
   </si>
   <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
@@ -4517,6 +4508,15 @@
   </si>
   <si>
     <t>zollikofer_c</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>walthard_m</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
   </si>
 </sst>
 </file>
@@ -4860,8 +4860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D449" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J461" sqref="J461"/>
+    <sheetView tabSelected="1" topLeftCell="E141" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4895,7 +4895,7 @@
         <v>1322</v>
       </c>
       <c r="I1" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4921,7 +4921,7 @@
         <v>1322</v>
       </c>
       <c r="I2" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4947,10 +4947,10 @@
         <v>1442</v>
       </c>
       <c r="I3" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J3" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4976,10 +4976,10 @@
         <v>1442</v>
       </c>
       <c r="I4" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J4" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5005,10 +5005,10 @@
         <v>1442</v>
       </c>
       <c r="I5" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J5" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5034,7 +5034,7 @@
         <v>1324</v>
       </c>
       <c r="I6" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5060,7 +5060,7 @@
         <v>1324</v>
       </c>
       <c r="I7" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5086,7 +5086,7 @@
         <v>1325</v>
       </c>
       <c r="I8" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5112,7 +5112,7 @@
         <v>1443</v>
       </c>
       <c r="I9" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5138,7 +5138,7 @@
         <v>1324</v>
       </c>
       <c r="I10" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5164,7 +5164,7 @@
         <v>1326</v>
       </c>
       <c r="I11" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5190,7 +5190,7 @@
         <v>1325</v>
       </c>
       <c r="I12" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5216,10 +5216,10 @@
         <v>1442</v>
       </c>
       <c r="I13" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J13" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5245,7 +5245,7 @@
         <v>1323</v>
       </c>
       <c r="I14" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5271,7 +5271,7 @@
         <v>1323</v>
       </c>
       <c r="I15" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5297,7 +5297,7 @@
         <v>1327</v>
       </c>
       <c r="I16" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -5320,10 +5320,10 @@
         <v>1017</v>
       </c>
       <c r="H17" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="I17" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -5349,7 +5349,7 @@
         <v>1327</v>
       </c>
       <c r="I18" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5375,7 +5375,7 @@
         <v>1327</v>
       </c>
       <c r="I19" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -5398,10 +5398,10 @@
         <v>1020</v>
       </c>
       <c r="H20" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="I20" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -5427,7 +5427,7 @@
         <v>1443</v>
       </c>
       <c r="I21" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -5453,7 +5453,7 @@
         <v>1322</v>
       </c>
       <c r="I22" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -5479,7 +5479,7 @@
         <v>1324</v>
       </c>
       <c r="I23" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -5505,7 +5505,7 @@
         <v>1443</v>
       </c>
       <c r="I24" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -5531,7 +5531,7 @@
         <v>1323</v>
       </c>
       <c r="I25" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -5554,10 +5554,10 @@
         <v>1023</v>
       </c>
       <c r="H26" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="I26" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5580,10 +5580,10 @@
         <v>1026</v>
       </c>
       <c r="H27" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="I27" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -5609,7 +5609,7 @@
         <v>1443</v>
       </c>
       <c r="I28" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -5635,7 +5635,7 @@
         <v>1444</v>
       </c>
       <c r="I29" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -5661,7 +5661,7 @@
         <v>1328</v>
       </c>
       <c r="I30" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -5687,7 +5687,7 @@
         <v>1328</v>
       </c>
       <c r="I31" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -5713,7 +5713,7 @@
         <v>1329</v>
       </c>
       <c r="I32" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5739,7 +5739,7 @@
         <v>1444</v>
       </c>
       <c r="I33" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5765,7 +5765,7 @@
         <v>1329</v>
       </c>
       <c r="I34" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5791,7 +5791,7 @@
         <v>1328</v>
       </c>
       <c r="I35" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5814,10 +5814,10 @@
         <v>1032</v>
       </c>
       <c r="H36" t="s">
-        <v>1445</v>
+        <v>1496</v>
       </c>
       <c r="I36" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5843,7 +5843,7 @@
         <v>1331</v>
       </c>
       <c r="I37" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5869,7 +5869,7 @@
         <v>1331</v>
       </c>
       <c r="I38" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5895,7 +5895,7 @@
         <v>1331</v>
       </c>
       <c r="I39" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5921,7 +5921,7 @@
         <v>1332</v>
       </c>
       <c r="I40" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5947,7 +5947,7 @@
         <v>1332</v>
       </c>
       <c r="I41" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5970,10 +5970,10 @@
         <v>1036</v>
       </c>
       <c r="H42" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I42" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5999,7 +5999,7 @@
         <v>1333</v>
       </c>
       <c r="I43" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -6025,7 +6025,7 @@
         <v>1333</v>
       </c>
       <c r="I44" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -6051,7 +6051,7 @@
         <v>1334</v>
       </c>
       <c r="I45" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -6077,7 +6077,7 @@
         <v>1335</v>
       </c>
       <c r="I46" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -6103,7 +6103,7 @@
         <v>1336</v>
       </c>
       <c r="I47" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -6129,7 +6129,7 @@
         <v>1337</v>
       </c>
       <c r="I48" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -6155,7 +6155,7 @@
         <v>1338</v>
       </c>
       <c r="I49" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -6181,7 +6181,7 @@
         <v>1339</v>
       </c>
       <c r="I50" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -6207,7 +6207,7 @@
         <v>1339</v>
       </c>
       <c r="I51" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -6233,7 +6233,7 @@
         <v>1338</v>
       </c>
       <c r="I52" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -6256,10 +6256,10 @@
         <v>1045</v>
       </c>
       <c r="H53" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I53" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -6282,10 +6282,10 @@
         <v>1046</v>
       </c>
       <c r="H54" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I54" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -6308,10 +6308,10 @@
         <v>1020</v>
       </c>
       <c r="H55" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I55" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -6337,7 +6337,7 @@
         <v>1341</v>
       </c>
       <c r="I56" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -6363,7 +6363,7 @@
         <v>1341</v>
       </c>
       <c r="I57" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -6389,7 +6389,7 @@
         <v>1342</v>
       </c>
       <c r="I58" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -6415,7 +6415,7 @@
         <v>1343</v>
       </c>
       <c r="I59" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -6441,7 +6441,7 @@
         <v>1344</v>
       </c>
       <c r="I60" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -6467,7 +6467,7 @@
         <v>1344</v>
       </c>
       <c r="I61" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -6493,7 +6493,7 @@
         <v>1345</v>
       </c>
       <c r="I62" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -6519,7 +6519,7 @@
         <v>1444</v>
       </c>
       <c r="I63" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -6545,7 +6545,7 @@
         <v>1328</v>
       </c>
       <c r="I64" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -6571,7 +6571,7 @@
         <v>1331</v>
       </c>
       <c r="I65" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -6594,10 +6594,10 @@
         <v>1057</v>
       </c>
       <c r="H66" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I66" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6623,7 +6623,7 @@
         <v>1334</v>
       </c>
       <c r="I67" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6649,7 +6649,7 @@
         <v>1334</v>
       </c>
       <c r="I68" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6675,7 +6675,7 @@
         <v>1337</v>
       </c>
       <c r="I69" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6701,7 +6701,7 @@
         <v>1338</v>
       </c>
       <c r="I70" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6727,7 +6727,7 @@
         <v>1339</v>
       </c>
       <c r="I71" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -6753,7 +6753,7 @@
         <v>1339</v>
       </c>
       <c r="I72" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -6776,10 +6776,10 @@
         <v>1060</v>
       </c>
       <c r="H73" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I73" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6805,7 +6805,7 @@
         <v>1343</v>
       </c>
       <c r="I74" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -6828,10 +6828,10 @@
         <v>1060</v>
       </c>
       <c r="H75" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I75" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -6857,7 +6857,7 @@
         <v>1344</v>
       </c>
       <c r="I76" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6883,7 +6883,7 @@
         <v>1344</v>
       </c>
       <c r="I77" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6909,7 +6909,7 @@
         <v>1344</v>
       </c>
       <c r="I78" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -6938,10 +6938,10 @@
         <v>1347</v>
       </c>
       <c r="I79" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J79" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -6967,10 +6967,10 @@
         <v>1347</v>
       </c>
       <c r="I80" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J80" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -6996,10 +6996,10 @@
         <v>1347</v>
       </c>
       <c r="I81" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J81" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -7025,10 +7025,10 @@
         <v>1347</v>
       </c>
       <c r="I82" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J82" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -7054,10 +7054,10 @@
         <v>1347</v>
       </c>
       <c r="I83" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J83" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -7083,7 +7083,7 @@
         <v>1348</v>
       </c>
       <c r="I84" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -7109,7 +7109,7 @@
         <v>1348</v>
       </c>
       <c r="I85" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -7135,7 +7135,7 @@
         <v>1348</v>
       </c>
       <c r="I86" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -7161,7 +7161,7 @@
         <v>1348</v>
       </c>
       <c r="I87" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -7187,7 +7187,7 @@
         <v>1348</v>
       </c>
       <c r="I88" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -7210,10 +7210,10 @@
         <v>1073</v>
       </c>
       <c r="H89" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I89" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -7236,10 +7236,10 @@
         <v>1074</v>
       </c>
       <c r="H90" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I90" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -7262,10 +7262,10 @@
         <v>1075</v>
       </c>
       <c r="H91" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I91" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -7288,10 +7288,10 @@
         <v>1076</v>
       </c>
       <c r="H92" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I92" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -7317,7 +7317,7 @@
         <v>1349</v>
       </c>
       <c r="I93" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -7343,7 +7343,7 @@
         <v>1349</v>
       </c>
       <c r="I94" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -7366,10 +7366,10 @@
         <v>1079</v>
       </c>
       <c r="H95" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I95" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -7392,10 +7392,10 @@
         <v>1080</v>
       </c>
       <c r="H96" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I96" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -7418,10 +7418,10 @@
         <v>1030</v>
       </c>
       <c r="H97" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I97" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -7444,10 +7444,10 @@
         <v>1081</v>
       </c>
       <c r="H98" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I98" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -7470,10 +7470,10 @@
         <v>1082</v>
       </c>
       <c r="H99" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I99" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -7496,10 +7496,10 @@
         <v>1083</v>
       </c>
       <c r="H100" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I100" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -7525,7 +7525,7 @@
         <v>1351</v>
       </c>
       <c r="I101" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -7548,7 +7548,7 @@
         <v>1084</v>
       </c>
       <c r="H102" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -7571,7 +7571,7 @@
         <v>1085</v>
       </c>
       <c r="H103" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -7594,7 +7594,7 @@
         <v>1086</v>
       </c>
       <c r="H104" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -7617,7 +7617,7 @@
         <v>1087</v>
       </c>
       <c r="H105" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -7640,7 +7640,7 @@
         <v>1076</v>
       </c>
       <c r="H106" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -7663,10 +7663,10 @@
         <v>1088</v>
       </c>
       <c r="H107" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I107" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -7689,10 +7689,10 @@
         <v>1089</v>
       </c>
       <c r="H108" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I108" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -7715,10 +7715,10 @@
         <v>1076</v>
       </c>
       <c r="H109" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I109" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -7741,10 +7741,10 @@
         <v>1090</v>
       </c>
       <c r="H110" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I110" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -7767,10 +7767,10 @@
         <v>1091</v>
       </c>
       <c r="H111" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I111" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -7793,10 +7793,10 @@
         <v>1092</v>
       </c>
       <c r="H112" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I112" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7819,10 +7819,10 @@
         <v>1010</v>
       </c>
       <c r="H113" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I113" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7845,10 +7845,10 @@
         <v>1010</v>
       </c>
       <c r="H114" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I114" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7871,10 +7871,10 @@
         <v>1093</v>
       </c>
       <c r="H115" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="I115" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7897,10 +7897,10 @@
         <v>1094</v>
       </c>
       <c r="H116" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="I116" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7923,10 +7923,10 @@
         <v>1076</v>
       </c>
       <c r="H117" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="I117" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7949,10 +7949,10 @@
         <v>1095</v>
       </c>
       <c r="H118" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I118" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7975,10 +7975,10 @@
         <v>1096</v>
       </c>
       <c r="H119" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I119" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -8001,10 +8001,10 @@
         <v>1070</v>
       </c>
       <c r="H120" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I120" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -8030,7 +8030,7 @@
         <v>1353</v>
       </c>
       <c r="I121" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -8056,7 +8056,7 @@
         <v>1353</v>
       </c>
       <c r="I122" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -8082,7 +8082,7 @@
         <v>1354</v>
       </c>
       <c r="I123" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -8108,7 +8108,7 @@
         <v>1354</v>
       </c>
       <c r="I124" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -8134,7 +8134,7 @@
         <v>1355</v>
       </c>
       <c r="I125" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -8160,7 +8160,7 @@
         <v>1355</v>
       </c>
       <c r="I126" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -8183,10 +8183,10 @@
         <v>1010</v>
       </c>
       <c r="H127" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I127" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -8209,10 +8209,10 @@
         <v>1010</v>
       </c>
       <c r="H128" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I128" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8235,10 +8235,10 @@
         <v>1039</v>
       </c>
       <c r="H129" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I129" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8261,10 +8261,10 @@
         <v>1100</v>
       </c>
       <c r="H130" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I130" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8290,7 +8290,7 @@
         <v>1357</v>
       </c>
       <c r="I131" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8316,7 +8316,7 @@
         <v>1357</v>
       </c>
       <c r="I132" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8342,7 +8342,7 @@
         <v>1358</v>
       </c>
       <c r="I133" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8368,7 +8368,7 @@
         <v>1358</v>
       </c>
       <c r="I134" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8394,7 +8394,7 @@
         <v>1358</v>
       </c>
       <c r="I135" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8420,7 +8420,7 @@
         <v>1359</v>
       </c>
       <c r="I136" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8446,7 +8446,7 @@
         <v>1360</v>
       </c>
       <c r="I137" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8472,7 +8472,7 @@
         <v>1360</v>
       </c>
       <c r="I138" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8498,7 +8498,7 @@
         <v>1360</v>
       </c>
       <c r="I139" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8524,7 +8524,7 @@
         <v>1361</v>
       </c>
       <c r="I140" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8547,10 +8547,10 @@
         <v>1022</v>
       </c>
       <c r="H141" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I141" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8576,7 +8576,7 @@
         <v>1362</v>
       </c>
       <c r="I142" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8602,7 +8602,7 @@
         <v>1363</v>
       </c>
       <c r="I143" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8628,7 +8628,7 @@
         <v>1363</v>
       </c>
       <c r="I144" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8654,7 +8654,7 @@
         <v>1364</v>
       </c>
       <c r="I145" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8680,7 +8680,7 @@
         <v>1364</v>
       </c>
       <c r="I146" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8706,7 +8706,7 @@
         <v>1365</v>
       </c>
       <c r="I147" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8732,7 +8732,7 @@
         <v>1365</v>
       </c>
       <c r="I148" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8758,7 +8758,7 @@
         <v>1366</v>
       </c>
       <c r="I149" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8784,7 +8784,7 @@
         <v>1366</v>
       </c>
       <c r="I150" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8807,10 +8807,10 @@
         <v>1115</v>
       </c>
       <c r="H151" t="s">
-        <v>1461</v>
+        <v>1497</v>
       </c>
       <c r="I151" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8833,10 +8833,10 @@
         <v>1116</v>
       </c>
       <c r="H152" t="s">
-        <v>1461</v>
+        <v>1497</v>
       </c>
       <c r="I152" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8859,10 +8859,10 @@
         <v>1117</v>
       </c>
       <c r="H153" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="I153" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8885,10 +8885,10 @@
         <v>1118</v>
       </c>
       <c r="H154" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="I154" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8911,10 +8911,10 @@
         <v>1119</v>
       </c>
       <c r="H155" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="I155" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8937,10 +8937,10 @@
         <v>1120</v>
       </c>
       <c r="H156" t="s">
-        <v>1464</v>
+        <v>1498</v>
       </c>
       <c r="I156" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8966,7 +8966,7 @@
         <v>1367</v>
       </c>
       <c r="I157" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8992,7 +8992,7 @@
         <v>1367</v>
       </c>
       <c r="I158" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -9018,7 +9018,7 @@
         <v>1367</v>
       </c>
       <c r="I159" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -9044,7 +9044,7 @@
         <v>1367</v>
       </c>
       <c r="I160" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -9070,7 +9070,7 @@
         <v>1368</v>
       </c>
       <c r="I161" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -9096,7 +9096,7 @@
         <v>1340</v>
       </c>
       <c r="I162" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -9122,7 +9122,7 @@
         <v>1340</v>
       </c>
       <c r="I163" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -9145,10 +9145,10 @@
         <v>1126</v>
       </c>
       <c r="H164" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="I164" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -9171,10 +9171,10 @@
         <v>1127</v>
       </c>
       <c r="H165" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="I165" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -9197,10 +9197,10 @@
         <v>1128</v>
       </c>
       <c r="H166" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="I166" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -9226,7 +9226,7 @@
         <v>1369</v>
       </c>
       <c r="I167" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -9249,10 +9249,10 @@
         <v>1106</v>
       </c>
       <c r="H168" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="I168" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -9275,10 +9275,10 @@
         <v>1129</v>
       </c>
       <c r="H169" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="I169" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -9301,10 +9301,10 @@
         <v>1130</v>
       </c>
       <c r="H170" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="I170" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -9327,10 +9327,10 @@
         <v>1131</v>
       </c>
       <c r="H171" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="I171" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -9353,10 +9353,10 @@
         <v>1132</v>
       </c>
       <c r="H172" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="I172" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9379,10 +9379,10 @@
         <v>1133</v>
       </c>
       <c r="H173" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="I173" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9405,10 +9405,10 @@
         <v>1134</v>
       </c>
       <c r="H174" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="I174" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9431,10 +9431,10 @@
         <v>1135</v>
       </c>
       <c r="H175" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="I175" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9460,7 +9460,7 @@
         <v>1370</v>
       </c>
       <c r="I176" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9486,7 +9486,7 @@
         <v>1370</v>
       </c>
       <c r="I177" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9512,7 +9512,7 @@
         <v>1370</v>
       </c>
       <c r="I178" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9538,7 +9538,7 @@
         <v>1370</v>
       </c>
       <c r="I179" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9564,7 +9564,7 @@
         <v>1352</v>
       </c>
       <c r="I180" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9590,7 +9590,7 @@
         <v>1352</v>
       </c>
       <c r="I181" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9616,7 +9616,7 @@
         <v>1352</v>
       </c>
       <c r="I182" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9642,7 +9642,7 @@
         <v>1371</v>
       </c>
       <c r="I183" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9668,7 +9668,7 @@
         <v>1343</v>
       </c>
       <c r="I184" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9694,7 +9694,7 @@
         <v>1372</v>
       </c>
       <c r="I185" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9720,7 +9720,7 @@
         <v>1372</v>
       </c>
       <c r="I186" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9743,10 +9743,10 @@
         <v>1145</v>
       </c>
       <c r="H187" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="I187" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9769,10 +9769,10 @@
         <v>1102</v>
       </c>
       <c r="H188" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="I188" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9798,7 +9798,7 @@
         <v>1373</v>
       </c>
       <c r="I189" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9824,7 +9824,7 @@
         <v>1373</v>
       </c>
       <c r="I190" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9850,7 +9850,7 @@
         <v>1373</v>
       </c>
       <c r="I191" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9876,7 +9876,7 @@
         <v>1373</v>
       </c>
       <c r="I192" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9902,7 +9902,7 @@
         <v>1373</v>
       </c>
       <c r="I193" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9928,7 +9928,7 @@
         <v>1374</v>
       </c>
       <c r="I194" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9954,7 +9954,7 @@
         <v>1374</v>
       </c>
       <c r="I195" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9980,7 +9980,7 @@
         <v>1374</v>
       </c>
       <c r="I196" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -10006,7 +10006,7 @@
         <v>1374</v>
       </c>
       <c r="I197" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -10029,10 +10029,10 @@
         <v>1153</v>
       </c>
       <c r="H198" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="I198" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -10055,10 +10055,10 @@
         <v>1154</v>
       </c>
       <c r="H199" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="I199" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -10081,10 +10081,10 @@
         <v>1085</v>
       </c>
       <c r="H200" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="I200" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -10107,10 +10107,10 @@
         <v>1155</v>
       </c>
       <c r="H201" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="I201" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -10133,10 +10133,10 @@
         <v>1156</v>
       </c>
       <c r="H202" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="I202" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -10159,10 +10159,10 @@
         <v>1021</v>
       </c>
       <c r="H203" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="I203" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -10185,10 +10185,10 @@
         <v>1157</v>
       </c>
       <c r="H204" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="I204" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -10211,7 +10211,7 @@
         <v>1158</v>
       </c>
       <c r="H205" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -10234,7 +10234,7 @@
         <v>1159</v>
       </c>
       <c r="H206" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -10257,7 +10257,7 @@
         <v>1160</v>
       </c>
       <c r="H207" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -10280,7 +10280,7 @@
         <v>1161</v>
       </c>
       <c r="H208" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10303,7 +10303,7 @@
         <v>1162</v>
       </c>
       <c r="H209" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10326,7 +10326,7 @@
         <v>1076</v>
       </c>
       <c r="H210" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10352,7 +10352,7 @@
         <v>1376</v>
       </c>
       <c r="I211" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10378,7 +10378,7 @@
         <v>1376</v>
       </c>
       <c r="I212" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10404,7 +10404,7 @@
         <v>1376</v>
       </c>
       <c r="I213" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10430,7 +10430,7 @@
         <v>1376</v>
       </c>
       <c r="I214" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10456,7 +10456,7 @@
         <v>1376</v>
       </c>
       <c r="I215" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10482,7 +10482,7 @@
         <v>1376</v>
       </c>
       <c r="I216" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10508,10 +10508,10 @@
         <v>1377</v>
       </c>
       <c r="I217" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J217" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10537,10 +10537,10 @@
         <v>1377</v>
       </c>
       <c r="I218" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J218" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10566,10 +10566,10 @@
         <v>1377</v>
       </c>
       <c r="I219" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J219" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10595,10 +10595,10 @@
         <v>1377</v>
       </c>
       <c r="I220" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J220" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10624,7 +10624,7 @@
         <v>1346</v>
       </c>
       <c r="I221" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10650,7 +10650,7 @@
         <v>1346</v>
       </c>
       <c r="I222" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10676,7 +10676,7 @@
         <v>1346</v>
       </c>
       <c r="I223" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10702,7 +10702,7 @@
         <v>1346</v>
       </c>
       <c r="I224" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10728,7 +10728,7 @@
         <v>1378</v>
       </c>
       <c r="I225" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10754,7 +10754,7 @@
         <v>1378</v>
       </c>
       <c r="I226" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10780,7 +10780,7 @@
         <v>1378</v>
       </c>
       <c r="I227" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10806,7 +10806,7 @@
         <v>1379</v>
       </c>
       <c r="I228" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10832,7 +10832,7 @@
         <v>1379</v>
       </c>
       <c r="I229" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10858,7 +10858,7 @@
         <v>1379</v>
       </c>
       <c r="I230" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10884,7 +10884,7 @@
         <v>1379</v>
       </c>
       <c r="I231" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10907,10 +10907,10 @@
         <v>1055</v>
       </c>
       <c r="H232" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="I232" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10933,10 +10933,10 @@
         <v>1004</v>
       </c>
       <c r="H233" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="I233" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10959,10 +10959,10 @@
         <v>1179</v>
       </c>
       <c r="H234" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="I234" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10985,10 +10985,10 @@
         <v>1180</v>
       </c>
       <c r="H235" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="I235" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -11011,10 +11011,10 @@
         <v>1181</v>
       </c>
       <c r="H236" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="I236" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -11040,7 +11040,7 @@
         <v>1380</v>
       </c>
       <c r="I237" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -11066,7 +11066,7 @@
         <v>1380</v>
       </c>
       <c r="I238" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -11092,7 +11092,7 @@
         <v>1380</v>
       </c>
       <c r="I239" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -11118,7 +11118,7 @@
         <v>1380</v>
       </c>
       <c r="I240" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -11144,7 +11144,7 @@
         <v>1380</v>
       </c>
       <c r="I241" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -11170,7 +11170,7 @@
         <v>1381</v>
       </c>
       <c r="I242" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -11196,7 +11196,7 @@
         <v>1382</v>
       </c>
       <c r="I243" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -11222,7 +11222,7 @@
         <v>1382</v>
       </c>
       <c r="I244" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11248,7 +11248,7 @@
         <v>1382</v>
       </c>
       <c r="I245" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11274,7 +11274,7 @@
         <v>1382</v>
       </c>
       <c r="I246" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11300,7 +11300,7 @@
         <v>1383</v>
       </c>
       <c r="I247" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11326,7 +11326,7 @@
         <v>1384</v>
       </c>
       <c r="I248" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11352,7 +11352,7 @@
         <v>1384</v>
       </c>
       <c r="I249" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11378,7 +11378,7 @@
         <v>1384</v>
       </c>
       <c r="I250" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11404,7 +11404,7 @@
         <v>1385</v>
       </c>
       <c r="I251" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11430,7 +11430,7 @@
         <v>1386</v>
       </c>
       <c r="I252" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11456,7 +11456,7 @@
         <v>1383</v>
       </c>
       <c r="I253" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11482,7 +11482,7 @@
         <v>1386</v>
       </c>
       <c r="I254" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11505,10 +11505,10 @@
         <v>1040</v>
       </c>
       <c r="H255" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="I255" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11534,7 +11534,7 @@
         <v>1387</v>
       </c>
       <c r="I256" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11560,7 +11560,7 @@
         <v>1387</v>
       </c>
       <c r="I257" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11586,7 +11586,7 @@
         <v>1387</v>
       </c>
       <c r="I258" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11612,7 +11612,7 @@
         <v>1387</v>
       </c>
       <c r="I259" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11635,10 +11635,10 @@
         <v>1194</v>
       </c>
       <c r="H260" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="I260" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11661,10 +11661,10 @@
         <v>1195</v>
       </c>
       <c r="H261" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="I261" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11687,10 +11687,10 @@
         <v>1191</v>
       </c>
       <c r="H262" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="I262" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11716,7 +11716,7 @@
         <v>1384</v>
       </c>
       <c r="I263" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11742,7 +11742,7 @@
         <v>1386</v>
       </c>
       <c r="I264" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11768,7 +11768,7 @@
         <v>1387</v>
       </c>
       <c r="I265" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11794,7 +11794,7 @@
         <v>1383</v>
       </c>
       <c r="I266" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11817,10 +11817,10 @@
         <v>1197</v>
       </c>
       <c r="H267" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="I267" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11846,7 +11846,7 @@
         <v>1383</v>
       </c>
       <c r="I268" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11872,7 +11872,7 @@
         <v>1385</v>
       </c>
       <c r="I269" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11895,10 +11895,10 @@
         <v>1201</v>
       </c>
       <c r="H270" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="I270" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11924,7 +11924,7 @@
         <v>1388</v>
       </c>
       <c r="I271" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11950,7 +11950,7 @@
         <v>1383</v>
       </c>
       <c r="I272" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11973,10 +11973,10 @@
         <v>1203</v>
       </c>
       <c r="H273" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="I273" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -12002,7 +12002,7 @@
         <v>1389</v>
       </c>
       <c r="I274" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -12028,7 +12028,7 @@
         <v>1390</v>
       </c>
       <c r="I275" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -12054,7 +12054,7 @@
         <v>1390</v>
       </c>
       <c r="I276" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -12080,7 +12080,7 @@
         <v>1390</v>
       </c>
       <c r="I277" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -12106,7 +12106,7 @@
         <v>1390</v>
       </c>
       <c r="I278" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -12132,7 +12132,7 @@
         <v>1390</v>
       </c>
       <c r="I279" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12158,7 +12158,7 @@
         <v>1390</v>
       </c>
       <c r="I280" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12184,7 +12184,7 @@
         <v>1345</v>
       </c>
       <c r="I281" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12210,7 +12210,7 @@
         <v>1391</v>
       </c>
       <c r="I282" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12236,7 +12236,7 @@
         <v>1391</v>
       </c>
       <c r="I283" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12262,7 +12262,7 @@
         <v>1345</v>
       </c>
       <c r="I284" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12288,7 +12288,7 @@
         <v>1345</v>
       </c>
       <c r="I285" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12314,7 +12314,7 @@
         <v>1345</v>
       </c>
       <c r="I286" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12340,7 +12340,7 @@
         <v>1391</v>
       </c>
       <c r="I287" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12366,7 +12366,7 @@
         <v>1350</v>
       </c>
       <c r="I288" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -12392,7 +12392,7 @@
         <v>1322</v>
       </c>
       <c r="I289" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -12418,7 +12418,7 @@
         <v>1350</v>
       </c>
       <c r="I290" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -12444,7 +12444,7 @@
         <v>1350</v>
       </c>
       <c r="I291" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -12470,10 +12470,10 @@
         <v>1392</v>
       </c>
       <c r="I292" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J292" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -12499,10 +12499,10 @@
         <v>1392</v>
       </c>
       <c r="I293" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J293" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -12528,7 +12528,7 @@
         <v>1391</v>
       </c>
       <c r="I294" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -12554,10 +12554,10 @@
         <v>1392</v>
       </c>
       <c r="I295" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J295" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -12580,10 +12580,10 @@
         <v>1012</v>
       </c>
       <c r="H296" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="I296" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -12609,7 +12609,7 @@
         <v>1391</v>
       </c>
       <c r="I297" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12635,10 +12635,10 @@
         <v>1392</v>
       </c>
       <c r="I298" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J298" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12664,10 +12664,10 @@
         <v>1392</v>
       </c>
       <c r="I299" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J299" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12693,7 +12693,7 @@
         <v>1391</v>
       </c>
       <c r="I300" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -12719,10 +12719,10 @@
         <v>1392</v>
       </c>
       <c r="I301" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J301" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -12748,7 +12748,7 @@
         <v>1391</v>
       </c>
       <c r="I302" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12771,10 +12771,10 @@
         <v>1052</v>
       </c>
       <c r="H303" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="I303" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -12797,10 +12797,10 @@
         <v>1062</v>
       </c>
       <c r="H304" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="I304" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12826,7 +12826,7 @@
         <v>1394</v>
       </c>
       <c r="I305" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12852,7 +12852,7 @@
         <v>1394</v>
       </c>
       <c r="I306" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12878,7 +12878,7 @@
         <v>1395</v>
       </c>
       <c r="I307" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12904,7 +12904,7 @@
         <v>1395</v>
       </c>
       <c r="I308" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12927,10 +12927,10 @@
         <v>1107</v>
       </c>
       <c r="H309" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="I309" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12956,7 +12956,7 @@
         <v>1396</v>
       </c>
       <c r="I310" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12982,7 +12982,7 @@
         <v>1396</v>
       </c>
       <c r="I311" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -13005,10 +13005,10 @@
         <v>1217</v>
       </c>
       <c r="H312" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="I312" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -13031,10 +13031,10 @@
         <v>1003</v>
       </c>
       <c r="H313" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="I313" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -13057,10 +13057,10 @@
         <v>1012</v>
       </c>
       <c r="H314" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="I314" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -13086,7 +13086,7 @@
         <v>1394</v>
       </c>
       <c r="I315" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -13112,7 +13112,7 @@
         <v>1396</v>
       </c>
       <c r="I316" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13138,7 +13138,7 @@
         <v>1396</v>
       </c>
       <c r="I317" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13164,7 +13164,7 @@
         <v>1394</v>
       </c>
       <c r="I318" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13190,7 +13190,7 @@
         <v>1394</v>
       </c>
       <c r="I319" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13216,7 +13216,7 @@
         <v>1396</v>
       </c>
       <c r="I320" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13239,10 +13239,10 @@
         <v>1222</v>
       </c>
       <c r="H321" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="I321" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13265,10 +13265,10 @@
         <v>1223</v>
       </c>
       <c r="H322" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="I322" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13291,10 +13291,10 @@
         <v>1180</v>
       </c>
       <c r="H323" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="I323" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13317,10 +13317,10 @@
         <v>1224</v>
       </c>
       <c r="H324" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="I324" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13343,10 +13343,10 @@
         <v>1059</v>
       </c>
       <c r="H325" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="I325" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13369,10 +13369,10 @@
         <v>1128</v>
       </c>
       <c r="H326" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="I326" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13398,7 +13398,7 @@
         <v>1397</v>
       </c>
       <c r="I327" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13424,7 +13424,7 @@
         <v>1398</v>
       </c>
       <c r="I328" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13450,7 +13450,7 @@
         <v>1399</v>
       </c>
       <c r="I329" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13476,7 +13476,7 @@
         <v>1399</v>
       </c>
       <c r="I330" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13499,10 +13499,10 @@
         <v>1107</v>
       </c>
       <c r="H331" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="I331" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13525,10 +13525,10 @@
         <v>1227</v>
       </c>
       <c r="H332" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="I332" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13551,10 +13551,10 @@
         <v>1228</v>
       </c>
       <c r="H333" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="I333" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13580,7 +13580,7 @@
         <v>1398</v>
       </c>
       <c r="I334" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13606,7 +13606,7 @@
         <v>1398</v>
       </c>
       <c r="I335" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13629,10 +13629,10 @@
         <v>1230</v>
       </c>
       <c r="H336" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="I336" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13655,10 +13655,10 @@
         <v>1047</v>
       </c>
       <c r="H337" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="I337" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13684,7 +13684,7 @@
         <v>1400</v>
       </c>
       <c r="I338" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13710,7 +13710,7 @@
         <v>1399</v>
       </c>
       <c r="I339" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13736,7 +13736,7 @@
         <v>1398</v>
       </c>
       <c r="I340" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13759,10 +13759,10 @@
         <v>1231</v>
       </c>
       <c r="H341" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="I341" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13788,7 +13788,7 @@
         <v>1398</v>
       </c>
       <c r="I342" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13811,10 +13811,10 @@
         <v>1155</v>
       </c>
       <c r="H343" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="I343" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13840,7 +13840,7 @@
         <v>1401</v>
       </c>
       <c r="I344" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13866,7 +13866,7 @@
         <v>1401</v>
       </c>
       <c r="I345" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13889,10 +13889,10 @@
         <v>1077</v>
       </c>
       <c r="H346" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="I346" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13918,7 +13918,7 @@
         <v>1342</v>
       </c>
       <c r="I347" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13944,7 +13944,7 @@
         <v>1402</v>
       </c>
       <c r="I348" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13967,10 +13967,10 @@
         <v>1087</v>
       </c>
       <c r="H349" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="I349" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13996,7 +13996,7 @@
         <v>1402</v>
       </c>
       <c r="I350" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -14022,7 +14022,7 @@
         <v>1342</v>
       </c>
       <c r="I351" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -14048,7 +14048,7 @@
         <v>1403</v>
       </c>
       <c r="I352" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -14074,7 +14074,7 @@
         <v>1403</v>
       </c>
       <c r="I353" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -14100,7 +14100,7 @@
         <v>1403</v>
       </c>
       <c r="I354" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -14126,7 +14126,7 @@
         <v>1404</v>
       </c>
       <c r="I355" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -14152,7 +14152,7 @@
         <v>1323</v>
       </c>
       <c r="I356" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -14178,7 +14178,7 @@
         <v>1401</v>
       </c>
       <c r="I357" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -14201,10 +14201,10 @@
         <v>1238</v>
       </c>
       <c r="H358" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="I358" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -14230,7 +14230,7 @@
         <v>1402</v>
       </c>
       <c r="I359" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -14256,7 +14256,7 @@
         <v>1404</v>
       </c>
       <c r="I360" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -14279,10 +14279,10 @@
         <v>1241</v>
       </c>
       <c r="H361" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="I361" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -14305,10 +14305,10 @@
         <v>1242</v>
       </c>
       <c r="H362" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="I362" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -14334,7 +14334,7 @@
         <v>1330</v>
       </c>
       <c r="I363" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14360,7 +14360,7 @@
         <v>1330</v>
       </c>
       <c r="I364" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14386,7 +14386,7 @@
         <v>1405</v>
       </c>
       <c r="I365" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14412,7 +14412,7 @@
         <v>1406</v>
       </c>
       <c r="I366" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14438,7 +14438,7 @@
         <v>1407</v>
       </c>
       <c r="I367" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14464,7 +14464,7 @@
         <v>1330</v>
       </c>
       <c r="I368" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14490,7 +14490,7 @@
         <v>1406</v>
       </c>
       <c r="I369" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14516,7 +14516,7 @@
         <v>1407</v>
       </c>
       <c r="I370" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14542,7 +14542,7 @@
         <v>1405</v>
       </c>
       <c r="I371" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14568,7 +14568,7 @@
         <v>1408</v>
       </c>
       <c r="I372" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14594,7 +14594,7 @@
         <v>1408</v>
       </c>
       <c r="I373" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14620,7 +14620,7 @@
         <v>1408</v>
       </c>
       <c r="I374" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14646,7 +14646,7 @@
         <v>1408</v>
       </c>
       <c r="I375" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14672,7 +14672,7 @@
         <v>1409</v>
       </c>
       <c r="I376" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14698,7 +14698,7 @@
         <v>1375</v>
       </c>
       <c r="I377" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14724,7 +14724,7 @@
         <v>1409</v>
       </c>
       <c r="I378" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14750,7 +14750,7 @@
         <v>1375</v>
       </c>
       <c r="I379" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14776,7 +14776,7 @@
         <v>1409</v>
       </c>
       <c r="I380" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14802,7 +14802,7 @@
         <v>1409</v>
       </c>
       <c r="I381" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14828,7 +14828,7 @@
         <v>1409</v>
       </c>
       <c r="I382" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14854,7 +14854,7 @@
         <v>1345</v>
       </c>
       <c r="I383" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14880,7 +14880,7 @@
         <v>1345</v>
       </c>
       <c r="I384" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14903,10 +14903,10 @@
         <v>1252</v>
       </c>
       <c r="H385" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="I385" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14929,10 +14929,10 @@
         <v>1253</v>
       </c>
       <c r="H386" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="I386" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14955,10 +14955,10 @@
         <v>1254</v>
       </c>
       <c r="H387" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="I387" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14981,10 +14981,10 @@
         <v>1255</v>
       </c>
       <c r="H388" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="I388" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -15007,10 +15007,10 @@
         <v>1230</v>
       </c>
       <c r="H389" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="I389" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -15033,10 +15033,10 @@
         <v>1256</v>
       </c>
       <c r="H390" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="I390" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -15059,10 +15059,10 @@
         <v>1170</v>
       </c>
       <c r="H391" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="I391" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -15085,10 +15085,10 @@
         <v>1257</v>
       </c>
       <c r="H392" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="I392" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15114,7 +15114,7 @@
         <v>1410</v>
       </c>
       <c r="I393" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15140,7 +15140,7 @@
         <v>1410</v>
       </c>
       <c r="I394" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15166,7 +15166,7 @@
         <v>1411</v>
       </c>
       <c r="I395" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15192,7 +15192,7 @@
         <v>1411</v>
       </c>
       <c r="I396" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15218,7 +15218,7 @@
         <v>1411</v>
       </c>
       <c r="I397" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15244,7 +15244,7 @@
         <v>1410</v>
       </c>
       <c r="I398" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15267,10 +15267,10 @@
         <v>1218</v>
       </c>
       <c r="H399" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="I399" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15296,7 +15296,7 @@
         <v>1412</v>
       </c>
       <c r="I400" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15325,7 +15325,7 @@
         <v>1356</v>
       </c>
       <c r="I401" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15354,7 +15354,7 @@
         <v>1356</v>
       </c>
       <c r="I402" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15383,7 +15383,7 @@
         <v>1356</v>
       </c>
       <c r="I403" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15412,7 +15412,7 @@
         <v>1356</v>
       </c>
       <c r="I404" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15441,7 +15441,7 @@
         <v>1356</v>
       </c>
       <c r="I405" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15464,10 +15464,10 @@
         <v>1014</v>
       </c>
       <c r="H406" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="I406" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15490,10 +15490,10 @@
         <v>1015</v>
       </c>
       <c r="H407" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="I407" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15516,10 +15516,10 @@
         <v>1267</v>
       </c>
       <c r="H408" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="I408" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15542,10 +15542,10 @@
         <v>1268</v>
       </c>
       <c r="H409" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="I409" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15568,10 +15568,10 @@
         <v>1076</v>
       </c>
       <c r="H410" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="I410" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15597,7 +15597,7 @@
         <v>1413</v>
       </c>
       <c r="I411" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15623,7 +15623,7 @@
         <v>1413</v>
       </c>
       <c r="I412" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15649,7 +15649,7 @@
         <v>1414</v>
       </c>
       <c r="I413" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15675,7 +15675,7 @@
         <v>1415</v>
       </c>
       <c r="I414" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15701,7 +15701,7 @@
         <v>1413</v>
       </c>
       <c r="I415" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15724,10 +15724,10 @@
         <v>1271</v>
       </c>
       <c r="H416" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="I416" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15753,7 +15753,7 @@
         <v>1413</v>
       </c>
       <c r="I417" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15776,16 +15776,16 @@
         <v>1272</v>
       </c>
       <c r="H418" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="I418" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="K418" t="s">
         <v>1413</v>
       </c>
       <c r="L418" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15811,7 +15811,7 @@
         <v>1416</v>
       </c>
       <c r="I419" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15837,7 +15837,7 @@
         <v>1416</v>
       </c>
       <c r="I420" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15863,7 +15863,7 @@
         <v>1416</v>
       </c>
       <c r="I421" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15889,7 +15889,7 @@
         <v>1416</v>
       </c>
       <c r="I422" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15915,13 +15915,13 @@
         <v>1416</v>
       </c>
       <c r="I423" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="K423" t="s">
         <v>1419</v>
       </c>
       <c r="L423" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15947,13 +15947,13 @@
         <v>1416</v>
       </c>
       <c r="I424" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="K424" t="s">
         <v>1419</v>
       </c>
       <c r="L424" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15979,7 +15979,7 @@
         <v>1417</v>
       </c>
       <c r="I425" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -16005,7 +16005,7 @@
         <v>1417</v>
       </c>
       <c r="I426" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -16031,7 +16031,7 @@
         <v>1417</v>
       </c>
       <c r="I427" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -16057,7 +16057,7 @@
         <v>1417</v>
       </c>
       <c r="I428" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -16083,7 +16083,7 @@
         <v>1417</v>
       </c>
       <c r="I429" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -16109,7 +16109,7 @@
         <v>1417</v>
       </c>
       <c r="I430" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -16135,7 +16135,7 @@
         <v>1417</v>
       </c>
       <c r="I431" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -16161,7 +16161,7 @@
         <v>1417</v>
       </c>
       <c r="I432" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -16187,7 +16187,7 @@
         <v>1418</v>
       </c>
       <c r="I433" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -16213,7 +16213,7 @@
         <v>1419</v>
       </c>
       <c r="I434" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -16239,7 +16239,7 @@
         <v>1393</v>
       </c>
       <c r="I435" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -16265,7 +16265,7 @@
         <v>1393</v>
       </c>
       <c r="I436" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -16291,7 +16291,7 @@
         <v>1393</v>
       </c>
       <c r="I437" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -16317,7 +16317,7 @@
         <v>1393</v>
       </c>
       <c r="I438" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -16346,7 +16346,7 @@
         <v>1420</v>
       </c>
       <c r="I439" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -16375,7 +16375,7 @@
         <v>1420</v>
       </c>
       <c r="I440" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -16401,7 +16401,7 @@
         <v>1420</v>
       </c>
       <c r="I441" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -16430,7 +16430,7 @@
         <v>1420</v>
       </c>
       <c r="I442" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
@@ -16459,7 +16459,7 @@
         <v>1420</v>
       </c>
       <c r="I443" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -16488,7 +16488,7 @@
         <v>1420</v>
       </c>
       <c r="I444" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -16517,7 +16517,7 @@
         <v>1420</v>
       </c>
       <c r="I445" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -16546,7 +16546,7 @@
         <v>1420</v>
       </c>
       <c r="I446" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -16575,7 +16575,7 @@
         <v>1420</v>
       </c>
       <c r="I447" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -16604,7 +16604,7 @@
         <v>1421</v>
       </c>
       <c r="I448" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.3">
@@ -16633,7 +16633,7 @@
         <v>1421</v>
       </c>
       <c r="I449" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.3">
@@ -16662,7 +16662,7 @@
         <v>1421</v>
       </c>
       <c r="I450" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
@@ -16691,7 +16691,7 @@
         <v>1421</v>
       </c>
       <c r="I451" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.3">
@@ -16720,7 +16720,7 @@
         <v>1421</v>
       </c>
       <c r="I452" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.3">
@@ -16749,7 +16749,7 @@
         <v>1421</v>
       </c>
       <c r="I453" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.3">
@@ -16778,7 +16778,7 @@
         <v>1421</v>
       </c>
       <c r="I454" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.3">
@@ -16807,7 +16807,7 @@
         <v>1421</v>
       </c>
       <c r="I455" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.3">
@@ -16836,7 +16836,7 @@
         <v>1422</v>
       </c>
       <c r="I456" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.3">
@@ -16865,7 +16865,7 @@
         <v>1422</v>
       </c>
       <c r="I457" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.3">
@@ -16891,7 +16891,7 @@
         <v>1343</v>
       </c>
       <c r="I458" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.3">
@@ -16917,7 +16917,7 @@
         <v>1343</v>
       </c>
       <c r="I459" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
@@ -16940,10 +16940,10 @@
         <v>1010</v>
       </c>
       <c r="H460" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I460" t="s">
         <v>1481</v>
-      </c>
-      <c r="I460" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.3">
@@ -16969,7 +16969,7 @@
         <v>1423</v>
       </c>
       <c r="I461" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.3">
@@ -16995,7 +16995,7 @@
         <v>1424</v>
       </c>
       <c r="I462" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.3">
@@ -17021,13 +17021,13 @@
         <v>1343</v>
       </c>
       <c r="I463" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="K463" t="s">
         <v>1424</v>
       </c>
       <c r="L463" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.3">
@@ -17053,7 +17053,7 @@
         <v>1343</v>
       </c>
       <c r="I464" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
@@ -17079,13 +17079,13 @@
         <v>1343</v>
       </c>
       <c r="I465" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="K465" t="s">
         <v>1423</v>
       </c>
       <c r="L465" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
@@ -17111,7 +17111,7 @@
         <v>1424</v>
       </c>
       <c r="I466" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
@@ -17137,19 +17137,19 @@
         <v>1343</v>
       </c>
       <c r="I467" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="K467" t="s">
         <v>1423</v>
       </c>
       <c r="L467" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="M467" t="s">
         <v>1424</v>
       </c>
       <c r="N467" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
@@ -17172,10 +17172,10 @@
         <v>1301</v>
       </c>
       <c r="H468" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="I468" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
@@ -17198,10 +17198,10 @@
         <v>1302</v>
       </c>
       <c r="H469" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="I469" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
@@ -17224,10 +17224,10 @@
         <v>1303</v>
       </c>
       <c r="H470" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="I470" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
@@ -17250,10 +17250,10 @@
         <v>1304</v>
       </c>
       <c r="H471" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="I471" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
@@ -17276,10 +17276,10 @@
         <v>1305</v>
       </c>
       <c r="H472" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="I472" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
@@ -17302,10 +17302,10 @@
         <v>1306</v>
       </c>
       <c r="H473" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="I473" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
@@ -17328,10 +17328,10 @@
         <v>1306</v>
       </c>
       <c r="H474" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="I474" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
@@ -17354,10 +17354,10 @@
         <v>1307</v>
       </c>
       <c r="H475" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="I475" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
@@ -17383,7 +17383,7 @@
         <v>1425</v>
       </c>
       <c r="I476" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
@@ -17409,7 +17409,7 @@
         <v>1425</v>
       </c>
       <c r="I477" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
@@ -17435,13 +17435,13 @@
         <v>1425</v>
       </c>
       <c r="I478" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="K478" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="L478" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
@@ -17467,7 +17467,7 @@
         <v>1425</v>
       </c>
       <c r="I479" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
@@ -17493,7 +17493,7 @@
         <v>1425</v>
       </c>
       <c r="I480" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.3">
@@ -17519,7 +17519,7 @@
         <v>1426</v>
       </c>
       <c r="I481" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.3">
@@ -17545,7 +17545,7 @@
         <v>1426</v>
       </c>
       <c r="I482" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.3">
@@ -17571,7 +17571,7 @@
         <v>1427</v>
       </c>
       <c r="I483" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.3">
@@ -17600,7 +17600,7 @@
         <v>1428</v>
       </c>
       <c r="I484" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.3">
@@ -17626,7 +17626,7 @@
         <v>1428</v>
       </c>
       <c r="I485" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.3">
@@ -17652,13 +17652,13 @@
         <v>1428</v>
       </c>
       <c r="I486" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="K486" t="s">
         <v>1431</v>
       </c>
       <c r="L486" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.3">
@@ -17684,19 +17684,19 @@
         <v>1428</v>
       </c>
       <c r="I487" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="K487" t="s">
         <v>1429</v>
       </c>
       <c r="L487" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="M487" t="s">
         <v>1431</v>
       </c>
       <c r="N487" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.3">
@@ -17722,7 +17722,7 @@
         <v>1428</v>
       </c>
       <c r="I488" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.3">
@@ -17748,7 +17748,7 @@
         <v>1429</v>
       </c>
       <c r="I489" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.3">
@@ -17774,7 +17774,7 @@
         <v>1429</v>
       </c>
       <c r="I490" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.3">
@@ -17800,7 +17800,7 @@
         <v>1429</v>
       </c>
       <c r="I491" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.3">
@@ -17826,7 +17826,7 @@
         <v>1430</v>
       </c>
       <c r="I492" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.3">
@@ -17852,7 +17852,7 @@
         <v>1431</v>
       </c>
       <c r="I493" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.3">
@@ -17878,7 +17878,7 @@
         <v>1432</v>
       </c>
       <c r="I494" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.3">
@@ -17904,7 +17904,7 @@
         <v>1432</v>
       </c>
       <c r="I495" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.3">
@@ -17930,10 +17930,10 @@
         <v>1433</v>
       </c>
       <c r="I496" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J496" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
@@ -17959,10 +17959,10 @@
         <v>1433</v>
       </c>
       <c r="I497" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J497" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
@@ -17988,10 +17988,10 @@
         <v>1433</v>
       </c>
       <c r="I498" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J498" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
@@ -18017,10 +18017,10 @@
         <v>1433</v>
       </c>
       <c r="I499" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J499" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
@@ -18046,10 +18046,10 @@
         <v>1433</v>
       </c>
       <c r="I500" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J500" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.3">
@@ -18075,10 +18075,10 @@
         <v>1433</v>
       </c>
       <c r="I501" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J501" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.3">
@@ -18104,7 +18104,7 @@
         <v>1434</v>
       </c>
       <c r="I502" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
@@ -18130,7 +18130,7 @@
         <v>1435</v>
       </c>
       <c r="I503" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
@@ -18156,7 +18156,7 @@
         <v>1390</v>
       </c>
       <c r="I504" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1925_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1925_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DA19DE-00DE-4BDE-B00B-0F4B89663861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B63902B-CF54-4156-AC34-269BC5FDA509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4366,12 +4366,6 @@
     <t>pfenninger_hf</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>brun_r</t>
   </si>
   <si>
@@ -4402,9 +4396,6 @@
     <t>brun_h</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -4414,12 +4405,6 @@
     <t>veraguth_o</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
-    <t>schinz_hr</t>
-  </si>
-  <si>
     <t>hess_w</t>
   </si>
   <si>
@@ -4517,6 +4502,21 @@
   </si>
   <si>
     <t>anderes_e</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schinz_hr2</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -4552,11 +4552,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4860,11 +4863,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E141" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H175" sqref="H175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
     <col min="6" max="6" width="44.109375" customWidth="1"/>
@@ -4895,7 +4898,7 @@
         <v>1322</v>
       </c>
       <c r="I1" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4921,7 +4924,7 @@
         <v>1322</v>
       </c>
       <c r="I2" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4947,10 +4950,10 @@
         <v>1442</v>
       </c>
       <c r="I3" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J3" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4976,10 +4979,10 @@
         <v>1442</v>
       </c>
       <c r="I4" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J4" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5005,10 +5008,10 @@
         <v>1442</v>
       </c>
       <c r="I5" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J5" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5034,7 +5037,7 @@
         <v>1324</v>
       </c>
       <c r="I6" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5060,7 +5063,7 @@
         <v>1324</v>
       </c>
       <c r="I7" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5086,7 +5089,7 @@
         <v>1325</v>
       </c>
       <c r="I8" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5112,7 +5115,7 @@
         <v>1443</v>
       </c>
       <c r="I9" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5138,7 +5141,7 @@
         <v>1324</v>
       </c>
       <c r="I10" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5164,7 +5167,7 @@
         <v>1326</v>
       </c>
       <c r="I11" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5190,7 +5193,7 @@
         <v>1325</v>
       </c>
       <c r="I12" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5216,10 +5219,10 @@
         <v>1442</v>
       </c>
       <c r="I13" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J13" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5245,7 +5248,7 @@
         <v>1323</v>
       </c>
       <c r="I14" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5271,7 +5274,7 @@
         <v>1323</v>
       </c>
       <c r="I15" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5297,7 +5300,7 @@
         <v>1327</v>
       </c>
       <c r="I16" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -5320,10 +5323,10 @@
         <v>1017</v>
       </c>
       <c r="H17" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="I17" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -5349,7 +5352,7 @@
         <v>1327</v>
       </c>
       <c r="I18" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5375,7 +5378,7 @@
         <v>1327</v>
       </c>
       <c r="I19" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -5398,10 +5401,10 @@
         <v>1020</v>
       </c>
       <c r="H20" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="I20" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -5427,7 +5430,7 @@
         <v>1443</v>
       </c>
       <c r="I21" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -5453,7 +5456,7 @@
         <v>1322</v>
       </c>
       <c r="I22" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -5479,7 +5482,7 @@
         <v>1324</v>
       </c>
       <c r="I23" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -5505,7 +5508,7 @@
         <v>1443</v>
       </c>
       <c r="I24" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -5531,7 +5534,7 @@
         <v>1323</v>
       </c>
       <c r="I25" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -5554,10 +5557,10 @@
         <v>1023</v>
       </c>
       <c r="H26" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="I26" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5580,10 +5583,10 @@
         <v>1026</v>
       </c>
       <c r="H27" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="I27" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -5609,7 +5612,7 @@
         <v>1443</v>
       </c>
       <c r="I28" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -5635,7 +5638,7 @@
         <v>1444</v>
       </c>
       <c r="I29" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -5661,7 +5664,7 @@
         <v>1328</v>
       </c>
       <c r="I30" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -5687,7 +5690,7 @@
         <v>1328</v>
       </c>
       <c r="I31" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -5713,7 +5716,7 @@
         <v>1329</v>
       </c>
       <c r="I32" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5739,7 +5742,7 @@
         <v>1444</v>
       </c>
       <c r="I33" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5765,7 +5768,7 @@
         <v>1329</v>
       </c>
       <c r="I34" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5791,7 +5794,7 @@
         <v>1328</v>
       </c>
       <c r="I35" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5814,10 +5817,10 @@
         <v>1032</v>
       </c>
       <c r="H36" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="I36" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5843,7 +5846,7 @@
         <v>1331</v>
       </c>
       <c r="I37" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5869,7 +5872,7 @@
         <v>1331</v>
       </c>
       <c r="I38" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5895,7 +5898,7 @@
         <v>1331</v>
       </c>
       <c r="I39" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5921,7 +5924,7 @@
         <v>1332</v>
       </c>
       <c r="I40" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5947,7 +5950,7 @@
         <v>1332</v>
       </c>
       <c r="I41" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5973,7 +5976,7 @@
         <v>1445</v>
       </c>
       <c r="I42" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5999,7 +6002,7 @@
         <v>1333</v>
       </c>
       <c r="I43" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -6025,7 +6028,7 @@
         <v>1333</v>
       </c>
       <c r="I44" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -6051,7 +6054,7 @@
         <v>1334</v>
       </c>
       <c r="I45" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -6077,7 +6080,7 @@
         <v>1335</v>
       </c>
       <c r="I46" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -6103,7 +6106,7 @@
         <v>1336</v>
       </c>
       <c r="I47" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -6129,7 +6132,7 @@
         <v>1337</v>
       </c>
       <c r="I48" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -6155,7 +6158,7 @@
         <v>1338</v>
       </c>
       <c r="I49" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -6181,7 +6184,7 @@
         <v>1339</v>
       </c>
       <c r="I50" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -6207,7 +6210,7 @@
         <v>1339</v>
       </c>
       <c r="I51" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -6233,7 +6236,7 @@
         <v>1338</v>
       </c>
       <c r="I52" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -6259,7 +6262,7 @@
         <v>1446</v>
       </c>
       <c r="I53" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -6285,7 +6288,7 @@
         <v>1446</v>
       </c>
       <c r="I54" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -6311,7 +6314,7 @@
         <v>1446</v>
       </c>
       <c r="I55" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -6337,7 +6340,7 @@
         <v>1341</v>
       </c>
       <c r="I56" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -6363,7 +6366,7 @@
         <v>1341</v>
       </c>
       <c r="I57" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -6389,7 +6392,7 @@
         <v>1342</v>
       </c>
       <c r="I58" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -6415,7 +6418,7 @@
         <v>1343</v>
       </c>
       <c r="I59" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -6441,7 +6444,7 @@
         <v>1344</v>
       </c>
       <c r="I60" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -6467,7 +6470,7 @@
         <v>1344</v>
       </c>
       <c r="I61" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -6493,7 +6496,7 @@
         <v>1345</v>
       </c>
       <c r="I62" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -6519,7 +6522,7 @@
         <v>1444</v>
       </c>
       <c r="I63" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -6545,7 +6548,7 @@
         <v>1328</v>
       </c>
       <c r="I64" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -6571,7 +6574,7 @@
         <v>1331</v>
       </c>
       <c r="I65" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -6597,7 +6600,7 @@
         <v>1447</v>
       </c>
       <c r="I66" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6623,7 +6626,7 @@
         <v>1334</v>
       </c>
       <c r="I67" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6649,7 +6652,7 @@
         <v>1334</v>
       </c>
       <c r="I68" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6675,7 +6678,7 @@
         <v>1337</v>
       </c>
       <c r="I69" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6701,7 +6704,7 @@
         <v>1338</v>
       </c>
       <c r="I70" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6727,7 +6730,7 @@
         <v>1339</v>
       </c>
       <c r="I71" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -6753,7 +6756,7 @@
         <v>1339</v>
       </c>
       <c r="I72" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -6779,7 +6782,7 @@
         <v>1446</v>
       </c>
       <c r="I73" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6805,7 +6808,7 @@
         <v>1343</v>
       </c>
       <c r="I74" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -6831,7 +6834,7 @@
         <v>1446</v>
       </c>
       <c r="I75" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -6857,7 +6860,7 @@
         <v>1344</v>
       </c>
       <c r="I76" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6883,7 +6886,7 @@
         <v>1344</v>
       </c>
       <c r="I77" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6909,7 +6912,7 @@
         <v>1344</v>
       </c>
       <c r="I78" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -6938,10 +6941,10 @@
         <v>1347</v>
       </c>
       <c r="I79" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J79" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -6967,10 +6970,10 @@
         <v>1347</v>
       </c>
       <c r="I80" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J80" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -6996,10 +6999,10 @@
         <v>1347</v>
       </c>
       <c r="I81" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J81" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -7025,10 +7028,10 @@
         <v>1347</v>
       </c>
       <c r="I82" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J82" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -7054,10 +7057,10 @@
         <v>1347</v>
       </c>
       <c r="I83" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J83" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -7083,7 +7086,7 @@
         <v>1348</v>
       </c>
       <c r="I84" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -7109,7 +7112,7 @@
         <v>1348</v>
       </c>
       <c r="I85" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -7135,7 +7138,7 @@
         <v>1348</v>
       </c>
       <c r="I86" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -7161,7 +7164,7 @@
         <v>1348</v>
       </c>
       <c r="I87" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -7187,7 +7190,7 @@
         <v>1348</v>
       </c>
       <c r="I88" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -7210,10 +7213,10 @@
         <v>1073</v>
       </c>
       <c r="H89" t="s">
-        <v>1448</v>
+        <v>1494</v>
       </c>
       <c r="I89" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -7236,10 +7239,10 @@
         <v>1074</v>
       </c>
       <c r="H90" t="s">
-        <v>1448</v>
+        <v>1494</v>
       </c>
       <c r="I90" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -7262,10 +7265,10 @@
         <v>1075</v>
       </c>
       <c r="H91" t="s">
-        <v>1449</v>
+        <v>1496</v>
       </c>
       <c r="I91" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -7288,10 +7291,10 @@
         <v>1076</v>
       </c>
       <c r="H92" t="s">
-        <v>1449</v>
+        <v>1496</v>
       </c>
       <c r="I92" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -7317,7 +7320,7 @@
         <v>1349</v>
       </c>
       <c r="I93" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -7343,7 +7346,7 @@
         <v>1349</v>
       </c>
       <c r="I94" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -7366,10 +7369,10 @@
         <v>1079</v>
       </c>
       <c r="H95" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="I95" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -7392,10 +7395,10 @@
         <v>1080</v>
       </c>
       <c r="H96" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="I96" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -7418,10 +7421,10 @@
         <v>1030</v>
       </c>
       <c r="H97" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I97" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -7444,10 +7447,10 @@
         <v>1081</v>
       </c>
       <c r="H98" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I98" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -7470,10 +7473,10 @@
         <v>1082</v>
       </c>
       <c r="H99" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I99" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -7496,10 +7499,10 @@
         <v>1083</v>
       </c>
       <c r="H100" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I100" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -7525,7 +7528,7 @@
         <v>1351</v>
       </c>
       <c r="I101" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -7548,7 +7551,7 @@
         <v>1084</v>
       </c>
       <c r="H102" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -7571,7 +7574,7 @@
         <v>1085</v>
       </c>
       <c r="H103" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -7594,7 +7597,7 @@
         <v>1086</v>
       </c>
       <c r="H104" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -7617,7 +7620,7 @@
         <v>1087</v>
       </c>
       <c r="H105" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -7640,7 +7643,7 @@
         <v>1076</v>
       </c>
       <c r="H106" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -7663,10 +7666,10 @@
         <v>1088</v>
       </c>
       <c r="H107" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I107" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -7689,10 +7692,10 @@
         <v>1089</v>
       </c>
       <c r="H108" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I108" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -7715,10 +7718,10 @@
         <v>1076</v>
       </c>
       <c r="H109" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I109" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -7741,10 +7744,10 @@
         <v>1090</v>
       </c>
       <c r="H110" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="I110" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -7767,10 +7770,10 @@
         <v>1091</v>
       </c>
       <c r="H111" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="I111" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -7793,10 +7796,10 @@
         <v>1092</v>
       </c>
       <c r="H112" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="I112" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7819,10 +7822,10 @@
         <v>1010</v>
       </c>
       <c r="H113" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="I113" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7845,10 +7848,10 @@
         <v>1010</v>
       </c>
       <c r="H114" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="I114" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7871,10 +7874,10 @@
         <v>1093</v>
       </c>
       <c r="H115" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="I115" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7897,10 +7900,10 @@
         <v>1094</v>
       </c>
       <c r="H116" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="I116" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7923,10 +7926,10 @@
         <v>1076</v>
       </c>
       <c r="H117" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="I117" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7949,10 +7952,10 @@
         <v>1095</v>
       </c>
       <c r="H118" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="I118" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7975,10 +7978,10 @@
         <v>1096</v>
       </c>
       <c r="H119" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="I119" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -8001,10 +8004,10 @@
         <v>1070</v>
       </c>
       <c r="H120" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="I120" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -8030,7 +8033,7 @@
         <v>1353</v>
       </c>
       <c r="I121" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -8056,7 +8059,7 @@
         <v>1353</v>
       </c>
       <c r="I122" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -8082,7 +8085,7 @@
         <v>1354</v>
       </c>
       <c r="I123" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -8108,7 +8111,7 @@
         <v>1354</v>
       </c>
       <c r="I124" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -8134,7 +8137,7 @@
         <v>1355</v>
       </c>
       <c r="I125" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -8160,7 +8163,7 @@
         <v>1355</v>
       </c>
       <c r="I126" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -8183,10 +8186,10 @@
         <v>1010</v>
       </c>
       <c r="H127" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="I127" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -8209,10 +8212,10 @@
         <v>1010</v>
       </c>
       <c r="H128" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="I128" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8235,10 +8238,10 @@
         <v>1039</v>
       </c>
       <c r="H129" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I129" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8261,10 +8264,10 @@
         <v>1100</v>
       </c>
       <c r="H130" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I130" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8290,7 +8293,7 @@
         <v>1357</v>
       </c>
       <c r="I131" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8316,7 +8319,7 @@
         <v>1357</v>
       </c>
       <c r="I132" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8342,7 +8345,7 @@
         <v>1358</v>
       </c>
       <c r="I133" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8368,7 +8371,7 @@
         <v>1358</v>
       </c>
       <c r="I134" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8394,7 +8397,7 @@
         <v>1358</v>
       </c>
       <c r="I135" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8420,7 +8423,7 @@
         <v>1359</v>
       </c>
       <c r="I136" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8446,7 +8449,7 @@
         <v>1360</v>
       </c>
       <c r="I137" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8472,7 +8475,7 @@
         <v>1360</v>
       </c>
       <c r="I138" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8498,7 +8501,7 @@
         <v>1360</v>
       </c>
       <c r="I139" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8524,7 +8527,7 @@
         <v>1361</v>
       </c>
       <c r="I140" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8547,10 +8550,10 @@
         <v>1022</v>
       </c>
       <c r="H141" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I141" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8576,7 +8579,7 @@
         <v>1362</v>
       </c>
       <c r="I142" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8602,7 +8605,7 @@
         <v>1363</v>
       </c>
       <c r="I143" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8628,7 +8631,7 @@
         <v>1363</v>
       </c>
       <c r="I144" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8654,7 +8657,7 @@
         <v>1364</v>
       </c>
       <c r="I145" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8680,7 +8683,7 @@
         <v>1364</v>
       </c>
       <c r="I146" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8706,7 +8709,7 @@
         <v>1365</v>
       </c>
       <c r="I147" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8732,7 +8735,7 @@
         <v>1365</v>
       </c>
       <c r="I148" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8758,7 +8761,7 @@
         <v>1366</v>
       </c>
       <c r="I149" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8784,7 +8787,7 @@
         <v>1366</v>
       </c>
       <c r="I150" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8807,10 +8810,10 @@
         <v>1115</v>
       </c>
       <c r="H151" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="I151" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8833,10 +8836,10 @@
         <v>1116</v>
       </c>
       <c r="H152" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="I152" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8858,11 +8861,11 @@
       <c r="G153" t="s">
         <v>1117</v>
       </c>
-      <c r="H153" t="s">
-        <v>1460</v>
+      <c r="H153" s="1" t="s">
+        <v>1495</v>
       </c>
       <c r="I153" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8884,11 +8887,11 @@
       <c r="G154" t="s">
         <v>1118</v>
       </c>
-      <c r="H154" t="s">
-        <v>1460</v>
+      <c r="H154" s="1" t="s">
+        <v>1495</v>
       </c>
       <c r="I154" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8911,10 +8914,10 @@
         <v>1119</v>
       </c>
       <c r="H155" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="I155" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8937,10 +8940,10 @@
         <v>1120</v>
       </c>
       <c r="H156" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="I156" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8966,7 +8969,7 @@
         <v>1367</v>
       </c>
       <c r="I157" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8992,7 +8995,7 @@
         <v>1367</v>
       </c>
       <c r="I158" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -9018,7 +9021,7 @@
         <v>1367</v>
       </c>
       <c r="I159" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -9044,7 +9047,7 @@
         <v>1367</v>
       </c>
       <c r="I160" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -9070,7 +9073,7 @@
         <v>1368</v>
       </c>
       <c r="I161" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -9096,7 +9099,7 @@
         <v>1340</v>
       </c>
       <c r="I162" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -9122,7 +9125,7 @@
         <v>1340</v>
       </c>
       <c r="I163" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -9145,10 +9148,10 @@
         <v>1126</v>
       </c>
       <c r="H164" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="I164" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -9171,10 +9174,10 @@
         <v>1127</v>
       </c>
       <c r="H165" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="I165" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -9197,10 +9200,10 @@
         <v>1128</v>
       </c>
       <c r="H166" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="I166" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -9226,7 +9229,7 @@
         <v>1369</v>
       </c>
       <c r="I167" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -9249,10 +9252,10 @@
         <v>1106</v>
       </c>
       <c r="H168" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="I168" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -9275,10 +9278,10 @@
         <v>1129</v>
       </c>
       <c r="H169" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="I169" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -9301,10 +9304,10 @@
         <v>1130</v>
       </c>
       <c r="H170" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="I170" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -9327,10 +9330,10 @@
         <v>1131</v>
       </c>
       <c r="H171" t="s">
-        <v>1464</v>
+        <v>1498</v>
       </c>
       <c r="I171" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -9353,10 +9356,10 @@
         <v>1132</v>
       </c>
       <c r="H172" t="s">
-        <v>1464</v>
+        <v>1498</v>
       </c>
       <c r="I172" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9379,10 +9382,10 @@
         <v>1133</v>
       </c>
       <c r="H173" t="s">
-        <v>1464</v>
+        <v>1498</v>
       </c>
       <c r="I173" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9405,10 +9408,10 @@
         <v>1134</v>
       </c>
       <c r="H174" t="s">
-        <v>1464</v>
+        <v>1498</v>
       </c>
       <c r="I174" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9431,10 +9434,10 @@
         <v>1135</v>
       </c>
       <c r="H175" t="s">
-        <v>1464</v>
+        <v>1498</v>
       </c>
       <c r="I175" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9460,7 +9463,7 @@
         <v>1370</v>
       </c>
       <c r="I176" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9486,7 +9489,7 @@
         <v>1370</v>
       </c>
       <c r="I177" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9512,7 +9515,7 @@
         <v>1370</v>
       </c>
       <c r="I178" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9538,7 +9541,7 @@
         <v>1370</v>
       </c>
       <c r="I179" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9564,7 +9567,7 @@
         <v>1352</v>
       </c>
       <c r="I180" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9590,7 +9593,7 @@
         <v>1352</v>
       </c>
       <c r="I181" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9616,7 +9619,7 @@
         <v>1352</v>
       </c>
       <c r="I182" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9642,7 +9645,7 @@
         <v>1371</v>
       </c>
       <c r="I183" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9668,7 +9671,7 @@
         <v>1343</v>
       </c>
       <c r="I184" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9694,7 +9697,7 @@
         <v>1372</v>
       </c>
       <c r="I185" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9720,7 +9723,7 @@
         <v>1372</v>
       </c>
       <c r="I186" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9743,10 +9746,10 @@
         <v>1145</v>
       </c>
       <c r="H187" t="s">
-        <v>1465</v>
+        <v>1497</v>
       </c>
       <c r="I187" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9769,10 +9772,10 @@
         <v>1102</v>
       </c>
       <c r="H188" t="s">
-        <v>1465</v>
+        <v>1497</v>
       </c>
       <c r="I188" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9798,7 +9801,7 @@
         <v>1373</v>
       </c>
       <c r="I189" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9824,7 +9827,7 @@
         <v>1373</v>
       </c>
       <c r="I190" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9850,7 +9853,7 @@
         <v>1373</v>
       </c>
       <c r="I191" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9876,7 +9879,7 @@
         <v>1373</v>
       </c>
       <c r="I192" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9902,7 +9905,7 @@
         <v>1373</v>
       </c>
       <c r="I193" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9928,7 +9931,7 @@
         <v>1374</v>
       </c>
       <c r="I194" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9954,7 +9957,7 @@
         <v>1374</v>
       </c>
       <c r="I195" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9980,7 +9983,7 @@
         <v>1374</v>
       </c>
       <c r="I196" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -10006,7 +10009,7 @@
         <v>1374</v>
       </c>
       <c r="I197" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -10029,10 +10032,10 @@
         <v>1153</v>
       </c>
       <c r="H198" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="I198" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -10055,10 +10058,10 @@
         <v>1154</v>
       </c>
       <c r="H199" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="I199" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -10081,10 +10084,10 @@
         <v>1085</v>
       </c>
       <c r="H200" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="I200" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -10107,10 +10110,10 @@
         <v>1155</v>
       </c>
       <c r="H201" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="I201" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -10133,10 +10136,10 @@
         <v>1156</v>
       </c>
       <c r="H202" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="I202" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -10159,10 +10162,10 @@
         <v>1021</v>
       </c>
       <c r="H203" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="I203" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -10185,10 +10188,10 @@
         <v>1157</v>
       </c>
       <c r="H204" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="I204" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -10211,7 +10214,7 @@
         <v>1158</v>
       </c>
       <c r="H205" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -10234,7 +10237,7 @@
         <v>1159</v>
       </c>
       <c r="H206" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -10257,7 +10260,7 @@
         <v>1160</v>
       </c>
       <c r="H207" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -10280,7 +10283,7 @@
         <v>1161</v>
       </c>
       <c r="H208" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10303,7 +10306,7 @@
         <v>1162</v>
       </c>
       <c r="H209" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10326,7 +10329,7 @@
         <v>1076</v>
       </c>
       <c r="H210" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10352,7 +10355,7 @@
         <v>1376</v>
       </c>
       <c r="I211" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10378,7 +10381,7 @@
         <v>1376</v>
       </c>
       <c r="I212" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10404,7 +10407,7 @@
         <v>1376</v>
       </c>
       <c r="I213" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10430,7 +10433,7 @@
         <v>1376</v>
       </c>
       <c r="I214" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10456,7 +10459,7 @@
         <v>1376</v>
       </c>
       <c r="I215" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10482,7 +10485,7 @@
         <v>1376</v>
       </c>
       <c r="I216" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10508,10 +10511,10 @@
         <v>1377</v>
       </c>
       <c r="I217" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J217" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10537,10 +10540,10 @@
         <v>1377</v>
       </c>
       <c r="I218" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J218" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10566,10 +10569,10 @@
         <v>1377</v>
       </c>
       <c r="I219" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J219" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10595,10 +10598,10 @@
         <v>1377</v>
       </c>
       <c r="I220" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J220" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10624,7 +10627,7 @@
         <v>1346</v>
       </c>
       <c r="I221" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10650,7 +10653,7 @@
         <v>1346</v>
       </c>
       <c r="I222" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10676,7 +10679,7 @@
         <v>1346</v>
       </c>
       <c r="I223" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10702,7 +10705,7 @@
         <v>1346</v>
       </c>
       <c r="I224" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10728,7 +10731,7 @@
         <v>1378</v>
       </c>
       <c r="I225" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10754,7 +10757,7 @@
         <v>1378</v>
       </c>
       <c r="I226" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10780,7 +10783,7 @@
         <v>1378</v>
       </c>
       <c r="I227" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10806,7 +10809,7 @@
         <v>1379</v>
       </c>
       <c r="I228" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10832,7 +10835,7 @@
         <v>1379</v>
       </c>
       <c r="I229" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10858,7 +10861,7 @@
         <v>1379</v>
       </c>
       <c r="I230" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10884,7 +10887,7 @@
         <v>1379</v>
       </c>
       <c r="I231" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10907,10 +10910,10 @@
         <v>1055</v>
       </c>
       <c r="H232" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="I232" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10933,10 +10936,10 @@
         <v>1004</v>
       </c>
       <c r="H233" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="I233" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10959,10 +10962,10 @@
         <v>1179</v>
       </c>
       <c r="H234" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="I234" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10985,10 +10988,10 @@
         <v>1180</v>
       </c>
       <c r="H235" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="I235" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -11011,10 +11014,10 @@
         <v>1181</v>
       </c>
       <c r="H236" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="I236" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -11040,7 +11043,7 @@
         <v>1380</v>
       </c>
       <c r="I237" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -11066,7 +11069,7 @@
         <v>1380</v>
       </c>
       <c r="I238" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -11092,7 +11095,7 @@
         <v>1380</v>
       </c>
       <c r="I239" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -11118,7 +11121,7 @@
         <v>1380</v>
       </c>
       <c r="I240" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -11144,7 +11147,7 @@
         <v>1380</v>
       </c>
       <c r="I241" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -11170,7 +11173,7 @@
         <v>1381</v>
       </c>
       <c r="I242" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -11196,7 +11199,7 @@
         <v>1382</v>
       </c>
       <c r="I243" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -11222,7 +11225,7 @@
         <v>1382</v>
       </c>
       <c r="I244" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11248,7 +11251,7 @@
         <v>1382</v>
       </c>
       <c r="I245" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11274,7 +11277,7 @@
         <v>1382</v>
       </c>
       <c r="I246" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11300,7 +11303,7 @@
         <v>1383</v>
       </c>
       <c r="I247" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11326,7 +11329,7 @@
         <v>1384</v>
       </c>
       <c r="I248" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11352,7 +11355,7 @@
         <v>1384</v>
       </c>
       <c r="I249" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11378,7 +11381,7 @@
         <v>1384</v>
       </c>
       <c r="I250" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11404,7 +11407,7 @@
         <v>1385</v>
       </c>
       <c r="I251" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11430,7 +11433,7 @@
         <v>1386</v>
       </c>
       <c r="I252" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11456,7 +11459,7 @@
         <v>1383</v>
       </c>
       <c r="I253" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11482,7 +11485,7 @@
         <v>1386</v>
       </c>
       <c r="I254" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11505,10 +11508,10 @@
         <v>1040</v>
       </c>
       <c r="H255" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="I255" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11534,7 +11537,7 @@
         <v>1387</v>
       </c>
       <c r="I256" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11560,7 +11563,7 @@
         <v>1387</v>
       </c>
       <c r="I257" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11586,7 +11589,7 @@
         <v>1387</v>
       </c>
       <c r="I258" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11612,7 +11615,7 @@
         <v>1387</v>
       </c>
       <c r="I259" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11635,10 +11638,10 @@
         <v>1194</v>
       </c>
       <c r="H260" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="I260" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11661,10 +11664,10 @@
         <v>1195</v>
       </c>
       <c r="H261" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="I261" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11687,10 +11690,10 @@
         <v>1191</v>
       </c>
       <c r="H262" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="I262" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11716,7 +11719,7 @@
         <v>1384</v>
       </c>
       <c r="I263" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11742,7 +11745,7 @@
         <v>1386</v>
       </c>
       <c r="I264" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11768,7 +11771,7 @@
         <v>1387</v>
       </c>
       <c r="I265" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11794,7 +11797,7 @@
         <v>1383</v>
       </c>
       <c r="I266" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11817,10 +11820,10 @@
         <v>1197</v>
       </c>
       <c r="H267" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="I267" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11846,7 +11849,7 @@
         <v>1383</v>
       </c>
       <c r="I268" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11872,7 +11875,7 @@
         <v>1385</v>
       </c>
       <c r="I269" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11895,10 +11898,10 @@
         <v>1201</v>
       </c>
       <c r="H270" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="I270" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11924,7 +11927,7 @@
         <v>1388</v>
       </c>
       <c r="I271" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11950,7 +11953,7 @@
         <v>1383</v>
       </c>
       <c r="I272" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11973,10 +11976,10 @@
         <v>1203</v>
       </c>
       <c r="H273" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="I273" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -12002,7 +12005,7 @@
         <v>1389</v>
       </c>
       <c r="I274" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -12028,7 +12031,7 @@
         <v>1390</v>
       </c>
       <c r="I275" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -12054,7 +12057,7 @@
         <v>1390</v>
       </c>
       <c r="I276" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -12080,7 +12083,7 @@
         <v>1390</v>
       </c>
       <c r="I277" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -12106,7 +12109,7 @@
         <v>1390</v>
       </c>
       <c r="I278" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -12132,7 +12135,7 @@
         <v>1390</v>
       </c>
       <c r="I279" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12158,7 +12161,7 @@
         <v>1390</v>
       </c>
       <c r="I280" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12184,7 +12187,7 @@
         <v>1345</v>
       </c>
       <c r="I281" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12210,7 +12213,7 @@
         <v>1391</v>
       </c>
       <c r="I282" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12236,7 +12239,7 @@
         <v>1391</v>
       </c>
       <c r="I283" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12262,7 +12265,7 @@
         <v>1345</v>
       </c>
       <c r="I284" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12288,7 +12291,7 @@
         <v>1345</v>
       </c>
       <c r="I285" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12314,7 +12317,7 @@
         <v>1345</v>
       </c>
       <c r="I286" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12340,7 +12343,7 @@
         <v>1391</v>
       </c>
       <c r="I287" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12366,7 +12369,7 @@
         <v>1350</v>
       </c>
       <c r="I288" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -12392,7 +12395,7 @@
         <v>1322</v>
       </c>
       <c r="I289" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -12418,7 +12421,7 @@
         <v>1350</v>
       </c>
       <c r="I290" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -12444,7 +12447,7 @@
         <v>1350</v>
       </c>
       <c r="I291" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -12470,10 +12473,10 @@
         <v>1392</v>
       </c>
       <c r="I292" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J292" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -12499,10 +12502,10 @@
         <v>1392</v>
       </c>
       <c r="I293" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J293" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -12528,7 +12531,7 @@
         <v>1391</v>
       </c>
       <c r="I294" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -12554,10 +12557,10 @@
         <v>1392</v>
       </c>
       <c r="I295" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J295" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -12580,10 +12583,10 @@
         <v>1012</v>
       </c>
       <c r="H296" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="I296" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -12609,7 +12612,7 @@
         <v>1391</v>
       </c>
       <c r="I297" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12635,10 +12638,10 @@
         <v>1392</v>
       </c>
       <c r="I298" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J298" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12664,10 +12667,10 @@
         <v>1392</v>
       </c>
       <c r="I299" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J299" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12693,7 +12696,7 @@
         <v>1391</v>
       </c>
       <c r="I300" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -12719,10 +12722,10 @@
         <v>1392</v>
       </c>
       <c r="I301" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J301" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -12748,7 +12751,7 @@
         <v>1391</v>
       </c>
       <c r="I302" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12771,10 +12774,10 @@
         <v>1052</v>
       </c>
       <c r="H303" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="I303" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -12797,10 +12800,10 @@
         <v>1062</v>
       </c>
       <c r="H304" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="I304" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12826,7 +12829,7 @@
         <v>1394</v>
       </c>
       <c r="I305" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12852,7 +12855,7 @@
         <v>1394</v>
       </c>
       <c r="I306" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12878,7 +12881,7 @@
         <v>1395</v>
       </c>
       <c r="I307" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12904,7 +12907,7 @@
         <v>1395</v>
       </c>
       <c r="I308" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12927,10 +12930,10 @@
         <v>1107</v>
       </c>
       <c r="H309" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="I309" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12956,7 +12959,7 @@
         <v>1396</v>
       </c>
       <c r="I310" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12982,7 +12985,7 @@
         <v>1396</v>
       </c>
       <c r="I311" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -13005,10 +13008,10 @@
         <v>1217</v>
       </c>
       <c r="H312" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="I312" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -13031,10 +13034,10 @@
         <v>1003</v>
       </c>
       <c r="H313" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="I313" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -13057,10 +13060,10 @@
         <v>1012</v>
       </c>
       <c r="H314" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="I314" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -13086,7 +13089,7 @@
         <v>1394</v>
       </c>
       <c r="I315" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -13112,7 +13115,7 @@
         <v>1396</v>
       </c>
       <c r="I316" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13138,7 +13141,7 @@
         <v>1396</v>
       </c>
       <c r="I317" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13164,7 +13167,7 @@
         <v>1394</v>
       </c>
       <c r="I318" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13190,7 +13193,7 @@
         <v>1394</v>
       </c>
       <c r="I319" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13216,7 +13219,7 @@
         <v>1396</v>
       </c>
       <c r="I320" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13239,10 +13242,10 @@
         <v>1222</v>
       </c>
       <c r="H321" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="I321" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13265,10 +13268,10 @@
         <v>1223</v>
       </c>
       <c r="H322" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="I322" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13291,10 +13294,10 @@
         <v>1180</v>
       </c>
       <c r="H323" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="I323" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13317,10 +13320,10 @@
         <v>1224</v>
       </c>
       <c r="H324" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="I324" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13343,10 +13346,10 @@
         <v>1059</v>
       </c>
       <c r="H325" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="I325" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13369,10 +13372,10 @@
         <v>1128</v>
       </c>
       <c r="H326" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="I326" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13398,7 +13401,7 @@
         <v>1397</v>
       </c>
       <c r="I327" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13424,7 +13427,7 @@
         <v>1398</v>
       </c>
       <c r="I328" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13450,7 +13453,7 @@
         <v>1399</v>
       </c>
       <c r="I329" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13476,7 +13479,7 @@
         <v>1399</v>
       </c>
       <c r="I330" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13499,10 +13502,10 @@
         <v>1107</v>
       </c>
       <c r="H331" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="I331" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13525,10 +13528,10 @@
         <v>1227</v>
       </c>
       <c r="H332" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="I332" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13551,10 +13554,10 @@
         <v>1228</v>
       </c>
       <c r="H333" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="I333" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13580,7 +13583,7 @@
         <v>1398</v>
       </c>
       <c r="I334" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13606,7 +13609,7 @@
         <v>1398</v>
       </c>
       <c r="I335" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13629,10 +13632,10 @@
         <v>1230</v>
       </c>
       <c r="H336" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="I336" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13655,10 +13658,10 @@
         <v>1047</v>
       </c>
       <c r="H337" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="I337" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13684,7 +13687,7 @@
         <v>1400</v>
       </c>
       <c r="I338" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13710,7 +13713,7 @@
         <v>1399</v>
       </c>
       <c r="I339" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13736,7 +13739,7 @@
         <v>1398</v>
       </c>
       <c r="I340" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13759,10 +13762,10 @@
         <v>1231</v>
       </c>
       <c r="H341" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="I341" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13788,7 +13791,7 @@
         <v>1398</v>
       </c>
       <c r="I342" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13811,10 +13814,10 @@
         <v>1155</v>
       </c>
       <c r="H343" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="I343" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13840,7 +13843,7 @@
         <v>1401</v>
       </c>
       <c r="I344" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13866,7 +13869,7 @@
         <v>1401</v>
       </c>
       <c r="I345" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13889,10 +13892,10 @@
         <v>1077</v>
       </c>
       <c r="H346" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="I346" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13918,7 +13921,7 @@
         <v>1342</v>
       </c>
       <c r="I347" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13944,7 +13947,7 @@
         <v>1402</v>
       </c>
       <c r="I348" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13967,10 +13970,10 @@
         <v>1087</v>
       </c>
       <c r="H349" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="I349" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13996,7 +13999,7 @@
         <v>1402</v>
       </c>
       <c r="I350" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -14022,7 +14025,7 @@
         <v>1342</v>
       </c>
       <c r="I351" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -14048,7 +14051,7 @@
         <v>1403</v>
       </c>
       <c r="I352" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -14074,7 +14077,7 @@
         <v>1403</v>
       </c>
       <c r="I353" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -14100,7 +14103,7 @@
         <v>1403</v>
       </c>
       <c r="I354" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -14126,7 +14129,7 @@
         <v>1404</v>
       </c>
       <c r="I355" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -14152,7 +14155,7 @@
         <v>1323</v>
       </c>
       <c r="I356" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -14178,7 +14181,7 @@
         <v>1401</v>
       </c>
       <c r="I357" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -14201,10 +14204,10 @@
         <v>1238</v>
       </c>
       <c r="H358" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="I358" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -14230,7 +14233,7 @@
         <v>1402</v>
       </c>
       <c r="I359" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -14256,7 +14259,7 @@
         <v>1404</v>
       </c>
       <c r="I360" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -14279,10 +14282,10 @@
         <v>1241</v>
       </c>
       <c r="H361" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="I361" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -14305,10 +14308,10 @@
         <v>1242</v>
       </c>
       <c r="H362" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="I362" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -14334,7 +14337,7 @@
         <v>1330</v>
       </c>
       <c r="I363" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14360,7 +14363,7 @@
         <v>1330</v>
       </c>
       <c r="I364" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14386,7 +14389,7 @@
         <v>1405</v>
       </c>
       <c r="I365" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14412,7 +14415,7 @@
         <v>1406</v>
       </c>
       <c r="I366" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14438,7 +14441,7 @@
         <v>1407</v>
       </c>
       <c r="I367" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14464,7 +14467,7 @@
         <v>1330</v>
       </c>
       <c r="I368" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14490,7 +14493,7 @@
         <v>1406</v>
       </c>
       <c r="I369" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14516,7 +14519,7 @@
         <v>1407</v>
       </c>
       <c r="I370" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14542,7 +14545,7 @@
         <v>1405</v>
       </c>
       <c r="I371" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14568,7 +14571,7 @@
         <v>1408</v>
       </c>
       <c r="I372" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14594,7 +14597,7 @@
         <v>1408</v>
       </c>
       <c r="I373" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14620,7 +14623,7 @@
         <v>1408</v>
       </c>
       <c r="I374" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14646,7 +14649,7 @@
         <v>1408</v>
       </c>
       <c r="I375" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14672,7 +14675,7 @@
         <v>1409</v>
       </c>
       <c r="I376" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14698,7 +14701,7 @@
         <v>1375</v>
       </c>
       <c r="I377" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14724,7 +14727,7 @@
         <v>1409</v>
       </c>
       <c r="I378" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14750,7 +14753,7 @@
         <v>1375</v>
       </c>
       <c r="I379" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14776,7 +14779,7 @@
         <v>1409</v>
       </c>
       <c r="I380" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14802,7 +14805,7 @@
         <v>1409</v>
       </c>
       <c r="I381" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14828,7 +14831,7 @@
         <v>1409</v>
       </c>
       <c r="I382" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14854,7 +14857,7 @@
         <v>1345</v>
       </c>
       <c r="I383" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14880,7 +14883,7 @@
         <v>1345</v>
       </c>
       <c r="I384" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14903,10 +14906,10 @@
         <v>1252</v>
       </c>
       <c r="H385" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="I385" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14929,10 +14932,10 @@
         <v>1253</v>
       </c>
       <c r="H386" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="I386" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14955,10 +14958,10 @@
         <v>1254</v>
       </c>
       <c r="H387" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="I387" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14981,10 +14984,10 @@
         <v>1255</v>
       </c>
       <c r="H388" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="I388" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -15007,10 +15010,10 @@
         <v>1230</v>
       </c>
       <c r="H389" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="I389" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -15033,10 +15036,10 @@
         <v>1256</v>
       </c>
       <c r="H390" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="I390" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -15059,10 +15062,10 @@
         <v>1170</v>
       </c>
       <c r="H391" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="I391" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -15085,10 +15088,10 @@
         <v>1257</v>
       </c>
       <c r="H392" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="I392" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15114,7 +15117,7 @@
         <v>1410</v>
       </c>
       <c r="I393" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15140,7 +15143,7 @@
         <v>1410</v>
       </c>
       <c r="I394" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15166,7 +15169,7 @@
         <v>1411</v>
       </c>
       <c r="I395" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15192,7 +15195,7 @@
         <v>1411</v>
       </c>
       <c r="I396" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15218,7 +15221,7 @@
         <v>1411</v>
       </c>
       <c r="I397" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15244,7 +15247,7 @@
         <v>1410</v>
       </c>
       <c r="I398" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15267,10 +15270,10 @@
         <v>1218</v>
       </c>
       <c r="H399" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="I399" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15296,7 +15299,7 @@
         <v>1412</v>
       </c>
       <c r="I400" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15325,7 +15328,7 @@
         <v>1356</v>
       </c>
       <c r="I401" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15354,7 +15357,7 @@
         <v>1356</v>
       </c>
       <c r="I402" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15383,7 +15386,7 @@
         <v>1356</v>
       </c>
       <c r="I403" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15412,7 +15415,7 @@
         <v>1356</v>
       </c>
       <c r="I404" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15441,7 +15444,7 @@
         <v>1356</v>
       </c>
       <c r="I405" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15464,10 +15467,10 @@
         <v>1014</v>
       </c>
       <c r="H406" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="I406" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15490,10 +15493,10 @@
         <v>1015</v>
       </c>
       <c r="H407" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="I407" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15516,10 +15519,10 @@
         <v>1267</v>
       </c>
       <c r="H408" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="I408" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15542,10 +15545,10 @@
         <v>1268</v>
       </c>
       <c r="H409" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="I409" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15568,10 +15571,10 @@
         <v>1076</v>
       </c>
       <c r="H410" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="I410" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15597,7 +15600,7 @@
         <v>1413</v>
       </c>
       <c r="I411" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15623,7 +15626,7 @@
         <v>1413</v>
       </c>
       <c r="I412" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15649,7 +15652,7 @@
         <v>1414</v>
       </c>
       <c r="I413" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15675,7 +15678,7 @@
         <v>1415</v>
       </c>
       <c r="I414" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15701,7 +15704,7 @@
         <v>1413</v>
       </c>
       <c r="I415" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15724,10 +15727,10 @@
         <v>1271</v>
       </c>
       <c r="H416" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="I416" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15753,7 +15756,7 @@
         <v>1413</v>
       </c>
       <c r="I417" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15776,16 +15779,16 @@
         <v>1272</v>
       </c>
       <c r="H418" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="I418" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="K418" t="s">
         <v>1413</v>
       </c>
       <c r="L418" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15811,7 +15814,7 @@
         <v>1416</v>
       </c>
       <c r="I419" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15837,7 +15840,7 @@
         <v>1416</v>
       </c>
       <c r="I420" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15863,7 +15866,7 @@
         <v>1416</v>
       </c>
       <c r="I421" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15889,7 +15892,7 @@
         <v>1416</v>
       </c>
       <c r="I422" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15915,13 +15918,13 @@
         <v>1416</v>
       </c>
       <c r="I423" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="K423" t="s">
         <v>1419</v>
       </c>
       <c r="L423" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15947,13 +15950,13 @@
         <v>1416</v>
       </c>
       <c r="I424" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="K424" t="s">
         <v>1419</v>
       </c>
       <c r="L424" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15979,7 +15982,7 @@
         <v>1417</v>
       </c>
       <c r="I425" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -16005,7 +16008,7 @@
         <v>1417</v>
       </c>
       <c r="I426" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -16031,7 +16034,7 @@
         <v>1417</v>
       </c>
       <c r="I427" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -16057,7 +16060,7 @@
         <v>1417</v>
       </c>
       <c r="I428" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -16083,7 +16086,7 @@
         <v>1417</v>
       </c>
       <c r="I429" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -16109,7 +16112,7 @@
         <v>1417</v>
       </c>
       <c r="I430" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -16135,7 +16138,7 @@
         <v>1417</v>
       </c>
       <c r="I431" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -16161,7 +16164,7 @@
         <v>1417</v>
       </c>
       <c r="I432" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -16187,7 +16190,7 @@
         <v>1418</v>
       </c>
       <c r="I433" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -16213,7 +16216,7 @@
         <v>1419</v>
       </c>
       <c r="I434" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -16239,7 +16242,7 @@
         <v>1393</v>
       </c>
       <c r="I435" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -16265,7 +16268,7 @@
         <v>1393</v>
       </c>
       <c r="I436" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -16291,7 +16294,7 @@
         <v>1393</v>
       </c>
       <c r="I437" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -16317,7 +16320,7 @@
         <v>1393</v>
       </c>
       <c r="I438" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -16346,7 +16349,7 @@
         <v>1420</v>
       </c>
       <c r="I439" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -16375,7 +16378,7 @@
         <v>1420</v>
       </c>
       <c r="I440" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -16401,7 +16404,7 @@
         <v>1420</v>
       </c>
       <c r="I441" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -16430,7 +16433,7 @@
         <v>1420</v>
       </c>
       <c r="I442" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
@@ -16459,7 +16462,7 @@
         <v>1420</v>
       </c>
       <c r="I443" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -16488,7 +16491,7 @@
         <v>1420</v>
       </c>
       <c r="I444" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -16517,7 +16520,7 @@
         <v>1420</v>
       </c>
       <c r="I445" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -16546,7 +16549,7 @@
         <v>1420</v>
       </c>
       <c r="I446" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -16575,7 +16578,7 @@
         <v>1420</v>
       </c>
       <c r="I447" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -16604,7 +16607,7 @@
         <v>1421</v>
       </c>
       <c r="I448" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.3">
@@ -16633,7 +16636,7 @@
         <v>1421</v>
       </c>
       <c r="I449" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.3">
@@ -16662,7 +16665,7 @@
         <v>1421</v>
       </c>
       <c r="I450" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
@@ -16691,7 +16694,7 @@
         <v>1421</v>
       </c>
       <c r="I451" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.3">
@@ -16720,7 +16723,7 @@
         <v>1421</v>
       </c>
       <c r="I452" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.3">
@@ -16749,7 +16752,7 @@
         <v>1421</v>
       </c>
       <c r="I453" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.3">
@@ -16778,7 +16781,7 @@
         <v>1421</v>
       </c>
       <c r="I454" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.3">
@@ -16807,7 +16810,7 @@
         <v>1421</v>
       </c>
       <c r="I455" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.3">
@@ -16836,7 +16839,7 @@
         <v>1422</v>
       </c>
       <c r="I456" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.3">
@@ -16865,7 +16868,7 @@
         <v>1422</v>
       </c>
       <c r="I457" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.3">
@@ -16891,7 +16894,7 @@
         <v>1343</v>
       </c>
       <c r="I458" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.3">
@@ -16917,7 +16920,7 @@
         <v>1343</v>
       </c>
       <c r="I459" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
@@ -16940,10 +16943,10 @@
         <v>1010</v>
       </c>
       <c r="H460" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="I460" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.3">
@@ -16969,7 +16972,7 @@
         <v>1423</v>
       </c>
       <c r="I461" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.3">
@@ -16995,7 +16998,7 @@
         <v>1424</v>
       </c>
       <c r="I462" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.3">
@@ -17021,13 +17024,13 @@
         <v>1343</v>
       </c>
       <c r="I463" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="K463" t="s">
         <v>1424</v>
       </c>
       <c r="L463" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.3">
@@ -17053,7 +17056,7 @@
         <v>1343</v>
       </c>
       <c r="I464" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
@@ -17079,13 +17082,13 @@
         <v>1343</v>
       </c>
       <c r="I465" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="K465" t="s">
         <v>1423</v>
       </c>
       <c r="L465" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
@@ -17111,7 +17114,7 @@
         <v>1424</v>
       </c>
       <c r="I466" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
@@ -17137,19 +17140,19 @@
         <v>1343</v>
       </c>
       <c r="I467" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="K467" t="s">
         <v>1423</v>
       </c>
       <c r="L467" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="M467" t="s">
         <v>1424</v>
       </c>
       <c r="N467" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
@@ -17172,10 +17175,10 @@
         <v>1301</v>
       </c>
       <c r="H468" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="I468" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
@@ -17198,10 +17201,10 @@
         <v>1302</v>
       </c>
       <c r="H469" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="I469" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
@@ -17224,10 +17227,10 @@
         <v>1303</v>
       </c>
       <c r="H470" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="I470" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
@@ -17250,10 +17253,10 @@
         <v>1304</v>
       </c>
       <c r="H471" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="I471" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
@@ -17276,10 +17279,10 @@
         <v>1305</v>
       </c>
       <c r="H472" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="I472" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
@@ -17302,10 +17305,10 @@
         <v>1306</v>
       </c>
       <c r="H473" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="I473" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
@@ -17328,10 +17331,10 @@
         <v>1306</v>
       </c>
       <c r="H474" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="I474" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
@@ -17354,10 +17357,10 @@
         <v>1307</v>
       </c>
       <c r="H475" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="I475" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
@@ -17383,7 +17386,7 @@
         <v>1425</v>
       </c>
       <c r="I476" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
@@ -17409,7 +17412,7 @@
         <v>1425</v>
       </c>
       <c r="I477" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
@@ -17435,13 +17438,13 @@
         <v>1425</v>
       </c>
       <c r="I478" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K478" t="s">
+        <v>1490</v>
+      </c>
+      <c r="L478" t="s">
         <v>1480</v>
-      </c>
-      <c r="K478" t="s">
-        <v>1495</v>
-      </c>
-      <c r="L478" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
@@ -17467,7 +17470,7 @@
         <v>1425</v>
       </c>
       <c r="I479" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
@@ -17493,7 +17496,7 @@
         <v>1425</v>
       </c>
       <c r="I480" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.3">
@@ -17519,7 +17522,7 @@
         <v>1426</v>
       </c>
       <c r="I481" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.3">
@@ -17545,7 +17548,7 @@
         <v>1426</v>
       </c>
       <c r="I482" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.3">
@@ -17571,7 +17574,7 @@
         <v>1427</v>
       </c>
       <c r="I483" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.3">
@@ -17600,7 +17603,7 @@
         <v>1428</v>
       </c>
       <c r="I484" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.3">
@@ -17626,7 +17629,7 @@
         <v>1428</v>
       </c>
       <c r="I485" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.3">
@@ -17652,13 +17655,13 @@
         <v>1428</v>
       </c>
       <c r="I486" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="K486" t="s">
         <v>1431</v>
       </c>
       <c r="L486" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.3">
@@ -17684,19 +17687,19 @@
         <v>1428</v>
       </c>
       <c r="I487" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="K487" t="s">
         <v>1429</v>
       </c>
       <c r="L487" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="M487" t="s">
         <v>1431</v>
       </c>
       <c r="N487" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.3">
@@ -17722,7 +17725,7 @@
         <v>1428</v>
       </c>
       <c r="I488" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.3">
@@ -17748,7 +17751,7 @@
         <v>1429</v>
       </c>
       <c r="I489" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.3">
@@ -17774,7 +17777,7 @@
         <v>1429</v>
       </c>
       <c r="I490" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.3">
@@ -17800,7 +17803,7 @@
         <v>1429</v>
       </c>
       <c r="I491" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.3">
@@ -17826,7 +17829,7 @@
         <v>1430</v>
       </c>
       <c r="I492" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.3">
@@ -17852,7 +17855,7 @@
         <v>1431</v>
       </c>
       <c r="I493" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.3">
@@ -17878,7 +17881,7 @@
         <v>1432</v>
       </c>
       <c r="I494" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.3">
@@ -17904,7 +17907,7 @@
         <v>1432</v>
       </c>
       <c r="I495" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.3">
@@ -17930,10 +17933,10 @@
         <v>1433</v>
       </c>
       <c r="I496" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J496" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
@@ -17959,10 +17962,10 @@
         <v>1433</v>
       </c>
       <c r="I497" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J497" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
@@ -17988,10 +17991,10 @@
         <v>1433</v>
       </c>
       <c r="I498" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J498" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
@@ -18017,10 +18020,10 @@
         <v>1433</v>
       </c>
       <c r="I499" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J499" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
@@ -18046,10 +18049,10 @@
         <v>1433</v>
       </c>
       <c r="I500" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J500" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.3">
@@ -18075,10 +18078,10 @@
         <v>1433</v>
       </c>
       <c r="I501" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="J501" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.3">
@@ -18104,7 +18107,7 @@
         <v>1434</v>
       </c>
       <c r="I502" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
@@ -18130,7 +18133,7 @@
         <v>1435</v>
       </c>
       <c r="I503" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
@@ -18156,7 +18159,7 @@
         <v>1390</v>
       </c>
       <c r="I504" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
